--- a/e_blackfire_capital_files/wiod_code_to_bea_naics.xlsx
+++ b/e_blackfire_capital_files/wiod_code_to_bea_naics.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ghislain\PycharmProjects\BlackFire_Capital\cBlackFireCapitalMarketStrategy\wiod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ghislain\PycharmProjects\BlackFire_Capital\e_blackfire_capital_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="2" r:id="rId1"/>
@@ -2595,7 +2595,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2722,16 +2722,20 @@
     </font>
     <font>
       <b/>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2754,7 +2758,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2812,16 +2816,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2841,7 +2867,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2908,41 +2934,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2951,26 +2952,56 @@
     <xf numFmtId="49" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -3555,9 +3586,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6826,4459 +6857,4778 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E422"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="49" customWidth="1"/>
-    <col min="2" max="4" width="10.88671875" style="42" customWidth="1"/>
-    <col min="5" max="5" width="75" style="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="50"/>
+    <col min="1" max="4" width="10.88671875" style="52" customWidth="1"/>
+    <col min="5" max="5" width="75" style="51" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="42" t="s">
         <v>327</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="60" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="52">
+      <c r="A2" s="43">
         <v>11</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="54" t="s">
         <v>328</v>
       </c>
-      <c r="C2" s="40">
+      <c r="C2" s="50">
         <v>111</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="52" t="s">
         <v>330</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="44" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="52">
+      <c r="A3" s="43">
         <v>11</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="54" t="s">
         <v>328</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="50">
         <v>111</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="52" t="s">
         <v>332</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="44" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="52">
+      <c r="A4" s="43">
         <v>11</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="54" t="s">
         <v>328</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="50">
         <v>111</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="52">
         <v>111200</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="44" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="52">
+      <c r="A5" s="43">
         <v>11</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="54" t="s">
         <v>328</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="50">
         <v>111</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="52">
         <v>111300</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="44" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="52">
+      <c r="A6" s="43">
         <v>11</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="54" t="s">
         <v>328</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="50">
         <v>111</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="52">
         <v>111400</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="44" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="52">
+      <c r="A7" s="43">
         <v>11</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="54" t="s">
         <v>328</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="50">
         <v>111</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="52">
         <v>111900</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="44" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="52">
+      <c r="A8" s="43">
         <v>11</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="54" t="s">
         <v>328</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="50">
         <v>112</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="52" t="s">
         <v>338</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="44" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="52">
+      <c r="A9" s="43">
         <v>11</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="54" t="s">
         <v>328</v>
       </c>
-      <c r="C9" s="40">
+      <c r="C9" s="50">
         <v>112</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="52">
         <v>112120</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="44" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="52">
+      <c r="A10" s="43">
         <v>11</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="54" t="s">
         <v>328</v>
       </c>
-      <c r="C10" s="40">
+      <c r="C10" s="50">
         <v>112</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="52" t="s">
         <v>341</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="44" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="52">
+      <c r="A11" s="43">
         <v>11</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="54" t="s">
         <v>328</v>
       </c>
-      <c r="C11" s="40">
+      <c r="C11" s="50">
         <v>112</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="52">
         <v>112300</v>
       </c>
-      <c r="E11" s="53" t="s">
+      <c r="E11" s="44" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="52">
+      <c r="A12" s="43">
         <v>11</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="54" t="s">
         <v>344</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="54" t="s">
         <v>344</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="52">
         <v>113000</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="44" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="52">
+      <c r="A13" s="43">
         <v>11</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="54" t="s">
         <v>344</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="54" t="s">
         <v>344</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="52">
         <v>114000</v>
       </c>
-      <c r="E13" s="53" t="s">
+      <c r="E13" s="44" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="52">
+      <c r="A14" s="43">
         <v>11</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="54" t="s">
         <v>344</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="54" t="s">
         <v>344</v>
       </c>
-      <c r="D14" s="42">
+      <c r="D14" s="52">
         <v>115000</v>
       </c>
-      <c r="E14" s="53" t="s">
+      <c r="E14" s="44" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="52">
+      <c r="A15" s="43">
         <v>21</v>
       </c>
-      <c r="B15" s="41">
+      <c r="B15" s="54">
         <v>211</v>
       </c>
-      <c r="C15" s="40">
+      <c r="C15" s="50">
         <v>211</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D15" s="52">
         <v>211000</v>
       </c>
-      <c r="E15" s="53" t="s">
+      <c r="E15" s="44" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="52">
+      <c r="A16" s="43">
         <v>21</v>
       </c>
-      <c r="B16" s="40">
+      <c r="B16" s="50">
         <v>212</v>
       </c>
-      <c r="C16" s="40">
+      <c r="C16" s="50">
         <v>212</v>
       </c>
-      <c r="D16" s="42">
+      <c r="D16" s="52">
         <v>212100</v>
       </c>
-      <c r="E16" s="53" t="s">
+      <c r="E16" s="44" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="52">
+      <c r="A17" s="43">
         <v>21</v>
       </c>
-      <c r="B17" s="40">
+      <c r="B17" s="50">
         <v>212</v>
       </c>
-      <c r="C17" s="40">
+      <c r="C17" s="50">
         <v>212</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="52" t="s">
         <v>348</v>
       </c>
-      <c r="E17" s="53" t="s">
+      <c r="E17" s="44" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="52">
+      <c r="A18" s="43">
         <v>21</v>
       </c>
-      <c r="B18" s="40">
+      <c r="B18" s="50">
         <v>212</v>
       </c>
-      <c r="C18" s="40">
+      <c r="C18" s="50">
         <v>212</v>
       </c>
-      <c r="D18" s="42">
+      <c r="D18" s="52">
         <v>212230</v>
       </c>
-      <c r="E18" s="53" t="s">
+      <c r="E18" s="44" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="52">
+      <c r="A19" s="43">
         <v>21</v>
       </c>
-      <c r="B19" s="40">
+      <c r="B19" s="50">
         <v>212</v>
       </c>
-      <c r="C19" s="40">
+      <c r="C19" s="50">
         <v>212</v>
       </c>
-      <c r="D19" s="42">
+      <c r="D19" s="52">
         <v>212310</v>
       </c>
-      <c r="E19" s="53" t="s">
+      <c r="E19" s="44" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="52">
+      <c r="A20" s="43">
         <v>21</v>
       </c>
-      <c r="B20" s="40">
+      <c r="B20" s="50">
         <v>212</v>
       </c>
-      <c r="C20" s="40">
+      <c r="C20" s="50">
         <v>212</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="52" t="s">
         <v>352</v>
       </c>
-      <c r="E20" s="53" t="s">
+      <c r="E20" s="44" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="52">
+      <c r="A21" s="43">
         <v>21</v>
       </c>
-      <c r="B21" s="40">
+      <c r="B21" s="50">
         <v>213</v>
       </c>
-      <c r="C21" s="40">
+      <c r="C21" s="50">
         <v>213</v>
       </c>
-      <c r="D21" s="42">
+      <c r="D21" s="52">
         <v>213111</v>
       </c>
-      <c r="E21" s="53" t="s">
+      <c r="E21" s="44" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="52">
+      <c r="A22" s="43">
         <v>21</v>
       </c>
-      <c r="B22" s="40">
+      <c r="B22" s="50">
         <v>213</v>
       </c>
-      <c r="C22" s="40">
+      <c r="C22" s="50">
         <v>213</v>
       </c>
-      <c r="D22" s="42" t="s">
+      <c r="D22" s="52" t="s">
         <v>355</v>
       </c>
-      <c r="E22" s="53" t="s">
+      <c r="E22" s="44" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="52">
+      <c r="A23" s="43">
         <v>22</v>
       </c>
-      <c r="B23" s="40">
+      <c r="B23" s="50">
         <v>22</v>
       </c>
-      <c r="C23" s="40">
+      <c r="C23" s="50">
         <v>2211</v>
       </c>
-      <c r="D23" s="42">
+      <c r="D23" s="52">
         <v>221100</v>
       </c>
-      <c r="E23" s="53" t="s">
+      <c r="E23" s="44" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="52">
+      <c r="A24" s="43">
         <v>22</v>
       </c>
-      <c r="B24" s="40">
+      <c r="B24" s="50">
         <v>22</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="50" t="s">
         <v>358</v>
       </c>
-      <c r="D24" s="42">
+      <c r="D24" s="52">
         <v>221200</v>
       </c>
-      <c r="E24" s="53" t="s">
+      <c r="E24" s="44" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="52">
+      <c r="A25" s="43">
         <v>22</v>
       </c>
-      <c r="B25" s="40">
+      <c r="B25" s="50">
         <v>22</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="50" t="s">
         <v>358</v>
       </c>
-      <c r="D25" s="42">
+      <c r="D25" s="52">
         <v>221300</v>
       </c>
-      <c r="E25" s="53" t="s">
+      <c r="E25" s="44" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="52">
+      <c r="A26" s="43">
         <v>23</v>
       </c>
-      <c r="B26" s="40">
+      <c r="B26" s="50">
         <v>23</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="50" t="s">
         <v>361</v>
       </c>
-      <c r="D26" s="42">
+      <c r="D26" s="52">
         <v>233210</v>
       </c>
-      <c r="E26" s="53" t="s">
+      <c r="E26" s="44" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="52">
+      <c r="A27" s="43">
         <v>23</v>
       </c>
-      <c r="B27" s="40">
+      <c r="B27" s="50">
         <v>23</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="42">
+      <c r="C27" s="50"/>
+      <c r="D27" s="52">
         <v>233262</v>
       </c>
-      <c r="E27" s="53" t="s">
+      <c r="E27" s="44" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="52">
+      <c r="A28" s="43">
         <v>23</v>
       </c>
-      <c r="B28" s="40">
+      <c r="B28" s="50">
         <v>23</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="50" t="s">
         <v>364</v>
       </c>
-      <c r="D28" s="42" t="s">
+      <c r="D28" s="52" t="s">
         <v>366</v>
       </c>
-      <c r="E28" s="53" t="s">
+      <c r="E28" s="44" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="52">
+      <c r="A29" s="43">
         <v>23</v>
       </c>
-      <c r="B29" s="40">
+      <c r="B29" s="50">
         <v>23</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="50" t="s">
         <v>367</v>
       </c>
-      <c r="D29" s="42">
+      <c r="D29" s="52">
         <v>233240</v>
       </c>
-      <c r="E29" s="53" t="s">
+      <c r="E29" s="44" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="52">
+      <c r="A30" s="43">
         <v>23</v>
       </c>
-      <c r="B30" s="40">
+      <c r="B30" s="50">
         <v>23</v>
       </c>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="50" t="s">
         <v>369</v>
       </c>
-      <c r="D30" s="46" t="s">
+      <c r="D30" s="55" t="s">
         <v>371</v>
       </c>
-      <c r="E30" s="54" t="s">
+      <c r="E30" s="45" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="52">
+      <c r="A31" s="43">
         <v>23</v>
       </c>
-      <c r="B31" s="40">
+      <c r="B31" s="50">
         <v>23</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="50" t="s">
         <v>372</v>
       </c>
-      <c r="D31" s="42">
+      <c r="D31" s="52">
         <v>233230</v>
       </c>
-      <c r="E31" s="53" t="s">
+      <c r="E31" s="44" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="52">
+      <c r="A32" s="43">
         <v>23</v>
       </c>
-      <c r="B32" s="40">
+      <c r="B32" s="50">
         <v>23</v>
       </c>
-      <c r="C32" s="40"/>
-      <c r="D32" s="46" t="s">
+      <c r="C32" s="50"/>
+      <c r="D32" s="55" t="s">
         <v>375</v>
       </c>
-      <c r="E32" s="54" t="s">
+      <c r="E32" s="45" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="52">
+      <c r="A33" s="43">
         <v>23</v>
       </c>
-      <c r="B33" s="40">
+      <c r="B33" s="50">
         <v>23</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="50" t="s">
         <v>376</v>
       </c>
-      <c r="D33" s="42">
+      <c r="D33" s="52">
         <v>233411</v>
       </c>
-      <c r="E33" s="53" t="s">
+      <c r="E33" s="44" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="52">
+      <c r="A34" s="43">
         <v>23</v>
       </c>
-      <c r="B34" s="40">
+      <c r="B34" s="50">
         <v>23</v>
       </c>
-      <c r="C34" s="40" t="s">
+      <c r="C34" s="50" t="s">
         <v>378</v>
       </c>
-      <c r="D34" s="42">
+      <c r="D34" s="52">
         <v>233412</v>
       </c>
-      <c r="E34" s="53" t="s">
+      <c r="E34" s="44" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="52">
+      <c r="A35" s="43">
         <v>23</v>
       </c>
-      <c r="B35" s="40">
+      <c r="B35" s="50">
         <v>23</v>
       </c>
-      <c r="C35" s="40"/>
-      <c r="D35" s="42" t="s">
+      <c r="C35" s="50"/>
+      <c r="D35" s="52" t="s">
         <v>380</v>
       </c>
-      <c r="E35" s="53" t="s">
+      <c r="E35" s="44" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="52">
+      <c r="A36" s="43">
         <v>23</v>
       </c>
-      <c r="B36" s="40">
+      <c r="B36" s="50">
         <v>23</v>
       </c>
-      <c r="C36" s="40" t="s">
+      <c r="C36" s="50" t="s">
         <v>382</v>
       </c>
-      <c r="D36" s="42">
+      <c r="D36" s="52">
         <v>230301</v>
       </c>
-      <c r="E36" s="53" t="s">
+      <c r="E36" s="44" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="52">
+      <c r="A37" s="43">
         <v>23</v>
       </c>
-      <c r="B37" s="40">
+      <c r="B37" s="50">
         <v>23</v>
       </c>
-      <c r="C37" s="40"/>
-      <c r="D37" s="42">
+      <c r="C37" s="50"/>
+      <c r="D37" s="52">
         <v>230302</v>
       </c>
-      <c r="E37" s="53" t="s">
+      <c r="E37" s="44" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="55" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="43" t="s">
         <v>385</v>
       </c>
-      <c r="B38" s="56">
+      <c r="B38" s="50">
         <v>321</v>
       </c>
-      <c r="C38" s="56">
+      <c r="C38" s="50">
         <v>321</v>
       </c>
-      <c r="D38" s="57">
+      <c r="D38" s="52">
         <v>321100</v>
       </c>
-      <c r="E38" s="58" t="s">
+      <c r="E38" s="44" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="47"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="42">
+      <c r="A39" s="43"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="52">
         <v>321200</v>
       </c>
-      <c r="E39" s="43" t="s">
+      <c r="E39" s="44" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D40" s="42">
+      <c r="A40" s="46"/>
+      <c r="D40" s="52">
         <v>321910</v>
       </c>
-      <c r="E40" s="43" t="s">
+      <c r="E40" s="44" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D41" s="42" t="s">
+      <c r="A41" s="46"/>
+      <c r="D41" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="E41" s="43" t="s">
+      <c r="E41" s="44" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="40">
+      <c r="A42" s="46"/>
+      <c r="B42" s="50">
         <v>327</v>
       </c>
-      <c r="C42" s="40">
+      <c r="C42" s="50">
         <v>327</v>
       </c>
-      <c r="D42" s="42">
+      <c r="D42" s="52">
         <v>327100</v>
       </c>
-      <c r="E42" s="43" t="s">
+      <c r="E42" s="44" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="42">
+      <c r="A43" s="46"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="52">
         <v>327200</v>
       </c>
-      <c r="E43" s="43" t="s">
+      <c r="E43" s="44" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D44" s="42">
+      <c r="A44" s="46"/>
+      <c r="D44" s="52">
         <v>327310</v>
       </c>
-      <c r="E44" s="43" t="s">
+      <c r="E44" s="44" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D45" s="42">
+      <c r="A45" s="46"/>
+      <c r="D45" s="52">
         <v>327320</v>
       </c>
-      <c r="E45" s="43" t="s">
+      <c r="E45" s="44" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D46" s="42">
+      <c r="A46" s="46"/>
+      <c r="D46" s="52">
         <v>327330</v>
       </c>
-      <c r="E46" s="43" t="s">
+      <c r="E46" s="44" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D47" s="42">
+      <c r="A47" s="46"/>
+      <c r="D47" s="52">
         <v>327390</v>
       </c>
-      <c r="E47" s="43" t="s">
+      <c r="E47" s="44" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D48" s="42">
+      <c r="A48" s="46"/>
+      <c r="D48" s="52">
         <v>327400</v>
       </c>
-      <c r="E48" s="43" t="s">
+      <c r="E48" s="44" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D49" s="42">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="46"/>
+      <c r="D49" s="52">
         <v>327910</v>
       </c>
-      <c r="E49" s="43" t="s">
+      <c r="E49" s="44" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D50" s="42">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="46"/>
+      <c r="D50" s="52">
         <v>327991</v>
       </c>
-      <c r="E50" s="43" t="s">
+      <c r="E50" s="44" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D51" s="42">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="46"/>
+      <c r="D51" s="52">
         <v>327992</v>
       </c>
-      <c r="E51" s="43" t="s">
+      <c r="E51" s="44" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D52" s="42">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="46"/>
+      <c r="D52" s="52">
         <v>327993</v>
       </c>
-      <c r="E52" s="43" t="s">
+      <c r="E52" s="44" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D53" s="42">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="46"/>
+      <c r="D53" s="52">
         <v>327999</v>
       </c>
-      <c r="E53" s="43" t="s">
+      <c r="E53" s="44" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B54" s="40">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="46"/>
+      <c r="B54" s="50">
         <v>331</v>
       </c>
-      <c r="C54" s="40" t="s">
+      <c r="C54" s="50" t="s">
         <v>403</v>
       </c>
-      <c r="D54" s="42">
+      <c r="D54" s="52">
         <v>331110</v>
       </c>
-      <c r="E54" s="43" t="s">
+      <c r="E54" s="44" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B55" s="40"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="42">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="46"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="52">
         <v>331200</v>
       </c>
-      <c r="E55" s="43" t="s">
+      <c r="E55" s="44" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C56" s="40" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="46"/>
+      <c r="C56" s="50" t="s">
         <v>406</v>
       </c>
-      <c r="D56" s="42">
+      <c r="D56" s="52">
         <v>331313</v>
       </c>
-      <c r="E56" s="43" t="s">
+      <c r="E56" s="44" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C57" s="40"/>
-      <c r="D57" s="42">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="46"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="52">
         <v>331314</v>
       </c>
-      <c r="E57" s="43" t="s">
+      <c r="E57" s="44" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D58" s="42" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="46"/>
+      <c r="D58" s="52" t="s">
         <v>409</v>
       </c>
-      <c r="E58" s="43" t="s">
+      <c r="E58" s="44" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C59" s="40"/>
-      <c r="D59" s="42">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="46"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="52">
         <v>331410</v>
       </c>
-      <c r="E59" s="46" t="s">
+      <c r="E59" s="45" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D60" s="42">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="46"/>
+      <c r="D60" s="52">
         <v>331420</v>
       </c>
-      <c r="E60" s="43" t="s">
+      <c r="E60" s="44" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D61" s="42">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="46"/>
+      <c r="D61" s="52">
         <v>331490</v>
       </c>
-      <c r="E61" s="43" t="s">
+      <c r="E61" s="44" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D62" s="42">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="46"/>
+      <c r="D62" s="52">
         <v>331510</v>
       </c>
-      <c r="E62" s="43" t="s">
+      <c r="E62" s="44" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D63" s="42">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="46"/>
+      <c r="D63" s="52">
         <v>331520</v>
       </c>
-      <c r="E63" s="43" t="s">
+      <c r="E63" s="44" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B64" s="40">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="46"/>
+      <c r="B64" s="50">
         <v>332</v>
       </c>
-      <c r="C64" s="40">
+      <c r="C64" s="50">
         <v>332</v>
       </c>
-      <c r="D64" s="42" t="s">
+      <c r="D64" s="52" t="s">
         <v>416</v>
       </c>
-      <c r="E64" s="43" t="s">
+      <c r="E64" s="44" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B65" s="40"/>
-      <c r="C65" s="40"/>
-      <c r="D65" s="42">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="46"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="52">
         <v>332114</v>
       </c>
-      <c r="E65" s="43" t="s">
+      <c r="E65" s="44" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C66" s="40"/>
-      <c r="D66" s="42">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="46"/>
+      <c r="C66" s="50"/>
+      <c r="D66" s="52">
         <v>332119</v>
       </c>
-      <c r="E66" s="43" t="s">
+      <c r="E66" s="44" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D67" s="42">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="46"/>
+      <c r="D67" s="52">
         <v>332200</v>
       </c>
-      <c r="E67" s="43" t="s">
+      <c r="E67" s="44" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D68" s="42">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="46"/>
+      <c r="D68" s="52">
         <v>332310</v>
       </c>
-      <c r="E68" s="43" t="s">
+      <c r="E68" s="44" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C69" s="40"/>
-      <c r="D69" s="42">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="46"/>
+      <c r="C69" s="50"/>
+      <c r="D69" s="52">
         <v>332320</v>
       </c>
-      <c r="E69" s="43" t="s">
+      <c r="E69" s="44" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D70" s="42">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="46"/>
+      <c r="D70" s="52">
         <v>332410</v>
       </c>
-      <c r="E70" s="43" t="s">
+      <c r="E70" s="44" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D71" s="42">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="46"/>
+      <c r="D71" s="52">
         <v>332420</v>
       </c>
-      <c r="E71" s="43" t="s">
+      <c r="E71" s="44" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D72" s="42">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="46"/>
+      <c r="D72" s="52">
         <v>332430</v>
       </c>
-      <c r="E72" s="43" t="s">
+      <c r="E72" s="44" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D73" s="42">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="46"/>
+      <c r="D73" s="52">
         <v>332500</v>
       </c>
-      <c r="E73" s="43" t="s">
+      <c r="E73" s="44" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D74" s="42">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="46"/>
+      <c r="D74" s="52">
         <v>332600</v>
       </c>
-      <c r="E74" s="43" t="s">
+      <c r="E74" s="44" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D75" s="42">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="46"/>
+      <c r="D75" s="52">
         <v>332710</v>
       </c>
-      <c r="E75" s="43" t="s">
+      <c r="E75" s="44" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D76" s="42">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="46"/>
+      <c r="D76" s="52">
         <v>332720</v>
       </c>
-      <c r="E76" s="43" t="s">
+      <c r="E76" s="44" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D77" s="42">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="46"/>
+      <c r="D77" s="52">
         <v>332800</v>
       </c>
-      <c r="E77" s="43" t="s">
+      <c r="E77" s="44" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D78" s="42" t="s">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="46"/>
+      <c r="D78" s="52" t="s">
         <v>431</v>
       </c>
-      <c r="E78" s="43" t="s">
+      <c r="E78" s="44" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D79" s="42">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="46"/>
+      <c r="D79" s="52">
         <v>332913</v>
       </c>
-      <c r="E79" s="43" t="s">
+      <c r="E79" s="44" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D80" s="42">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="46"/>
+      <c r="D80" s="52">
         <v>332991</v>
       </c>
-      <c r="E80" s="43" t="s">
+      <c r="E80" s="44" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D81" s="42" t="s">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="46"/>
+      <c r="D81" s="52" t="s">
         <v>435</v>
       </c>
-      <c r="E81" s="43" t="s">
+      <c r="E81" s="44" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D82" s="42">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="46"/>
+      <c r="D82" s="52">
         <v>332996</v>
       </c>
-      <c r="E82" s="43" t="s">
+      <c r="E82" s="44" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D83" s="42">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="46"/>
+      <c r="D83" s="52">
         <v>332999</v>
       </c>
-      <c r="E83" s="43" t="s">
+      <c r="E83" s="44" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B84" s="40">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="46"/>
+      <c r="B84" s="50">
         <v>333</v>
       </c>
-      <c r="C84" s="40">
+      <c r="C84" s="50">
         <v>33311</v>
       </c>
-      <c r="D84" s="42">
+      <c r="D84" s="52">
         <v>333111</v>
       </c>
-      <c r="E84" s="43" t="s">
+      <c r="E84" s="44" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B85" s="40"/>
-      <c r="C85" s="40"/>
-      <c r="D85" s="42">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="46"/>
+      <c r="B85" s="50"/>
+      <c r="C85" s="50"/>
+      <c r="D85" s="52">
         <v>333112</v>
       </c>
-      <c r="E85" s="43" t="s">
+      <c r="E85" s="44" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="86" spans="2:5" ht="10.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C86" s="40">
+    <row r="86" spans="1:5" ht="10.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="46"/>
+      <c r="C86" s="50">
         <v>33312</v>
       </c>
-      <c r="D86" s="42">
+      <c r="D86" s="52">
         <v>333120</v>
       </c>
-      <c r="E86" s="43" t="s">
+      <c r="E86" s="44" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C87" s="40">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="46"/>
+      <c r="C87" s="50">
         <v>33313</v>
       </c>
-      <c r="D87" s="42">
+      <c r="D87" s="52">
         <v>333130</v>
       </c>
-      <c r="E87" s="43" t="s">
+      <c r="E87" s="44" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C88" s="40" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="46"/>
+      <c r="C88" s="50" t="s">
         <v>443</v>
       </c>
-      <c r="D88" s="45">
+      <c r="D88" s="56">
         <v>333242</v>
       </c>
-      <c r="E88" s="46" t="s">
+      <c r="E88" s="45" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C89" s="40"/>
-      <c r="D89" s="42" t="s">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="46"/>
+      <c r="C89" s="50"/>
+      <c r="D89" s="52" t="s">
         <v>445</v>
       </c>
-      <c r="E89" s="43" t="s">
+      <c r="E89" s="44" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C90" s="40"/>
-      <c r="D90" s="42">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="46"/>
+      <c r="C90" s="50"/>
+      <c r="D90" s="52">
         <v>333314</v>
       </c>
-      <c r="E90" s="43" t="s">
+      <c r="E90" s="44" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C91" s="40"/>
-      <c r="D91" s="45">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="46"/>
+      <c r="C91" s="50"/>
+      <c r="D91" s="56">
         <v>333316</v>
       </c>
-      <c r="E91" s="46" t="s">
+      <c r="E91" s="45" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D92" s="42">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="46"/>
+      <c r="D92" s="52">
         <v>333318</v>
       </c>
-      <c r="E92" s="43" t="s">
+      <c r="E92" s="44" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D93" s="42">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="46"/>
+      <c r="D93" s="52">
         <v>333413</v>
       </c>
-      <c r="E93" s="43" t="s">
+      <c r="E93" s="44" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D94" s="42">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="46"/>
+      <c r="D94" s="52">
         <v>333414</v>
       </c>
-      <c r="E94" s="43" t="s">
+      <c r="E94" s="44" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C95" s="40"/>
-      <c r="D95" s="42">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="46"/>
+      <c r="C95" s="50"/>
+      <c r="D95" s="52">
         <v>333415</v>
       </c>
-      <c r="E95" s="43" t="s">
+      <c r="E95" s="44" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D96" s="42">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="46"/>
+      <c r="D96" s="52">
         <v>333511</v>
       </c>
-      <c r="E96" s="43" t="s">
+      <c r="E96" s="44" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D97" s="42">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="46"/>
+      <c r="D97" s="52">
         <v>333517</v>
       </c>
-      <c r="E97" s="43" t="s">
+      <c r="E97" s="44" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D98" s="42">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="46"/>
+      <c r="D98" s="52">
         <v>333514</v>
       </c>
-      <c r="E98" s="43" t="s">
+      <c r="E98" s="44" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D99" s="42" t="s">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="46"/>
+      <c r="D99" s="52" t="s">
         <v>456</v>
       </c>
-      <c r="E99" s="43" t="s">
+      <c r="E99" s="44" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D100" s="42">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="46"/>
+      <c r="D100" s="52">
         <v>333611</v>
       </c>
-      <c r="E100" s="43" t="s">
+      <c r="E100" s="44" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D101" s="42">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="46"/>
+      <c r="D101" s="52">
         <v>333612</v>
       </c>
-      <c r="E101" s="43" t="s">
+      <c r="E101" s="44" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D102" s="42">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="46"/>
+      <c r="D102" s="52">
         <v>333613</v>
       </c>
-      <c r="E102" s="43" t="s">
+      <c r="E102" s="44" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D103" s="42">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="46"/>
+      <c r="D103" s="52">
         <v>333618</v>
       </c>
-      <c r="E103" s="43" t="s">
+      <c r="E103" s="44" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D104" s="42" t="s">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="46"/>
+      <c r="D104" s="52" t="s">
         <v>462</v>
       </c>
-      <c r="E104" s="43" t="s">
+      <c r="E104" s="44" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D105" s="42">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="46"/>
+      <c r="D105" s="52">
         <v>333912</v>
       </c>
-      <c r="E105" s="43" t="s">
+      <c r="E105" s="44" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C106" s="40"/>
-      <c r="D106" s="42">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="46"/>
+      <c r="C106" s="50"/>
+      <c r="D106" s="52">
         <v>333920</v>
       </c>
-      <c r="E106" s="43" t="s">
+      <c r="E106" s="44" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D107" s="42">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="46"/>
+      <c r="D107" s="52">
         <v>333991</v>
       </c>
-      <c r="E107" s="43" t="s">
+      <c r="E107" s="44" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D108" s="42" t="s">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="46"/>
+      <c r="D108" s="52" t="s">
         <v>467</v>
       </c>
-      <c r="E108" s="43" t="s">
+      <c r="E108" s="44" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D109" s="42">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="46"/>
+      <c r="D109" s="52">
         <v>333993</v>
       </c>
-      <c r="E109" s="43" t="s">
+      <c r="E109" s="44" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D110" s="42">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="46"/>
+      <c r="D110" s="52">
         <v>333994</v>
       </c>
-      <c r="E110" s="43" t="s">
+      <c r="E110" s="44" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D111" s="42" t="s">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="46"/>
+      <c r="D111" s="52" t="s">
         <v>471</v>
       </c>
-      <c r="E111" s="43" t="s">
+      <c r="E111" s="44" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B112" s="40">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="46"/>
+      <c r="B112" s="50">
         <v>334</v>
       </c>
-      <c r="C112" s="40">
+      <c r="C112" s="50">
         <v>3341</v>
       </c>
-      <c r="D112" s="42">
+      <c r="D112" s="52">
         <v>334111</v>
       </c>
-      <c r="E112" s="43" t="s">
+      <c r="E112" s="44" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="113" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C113" s="40"/>
-      <c r="D113" s="42">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="46"/>
+      <c r="C113" s="50"/>
+      <c r="D113" s="52">
         <v>334112</v>
       </c>
-      <c r="E113" s="43" t="s">
+      <c r="E113" s="44" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="114" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D114" s="42">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="46"/>
+      <c r="D114" s="52">
         <v>334118</v>
       </c>
-      <c r="E114" s="43" t="s">
+      <c r="E114" s="44" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="115" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C115" s="40">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="46"/>
+      <c r="C115" s="50">
         <v>3342</v>
       </c>
-      <c r="D115" s="42">
+      <c r="D115" s="52">
         <v>334210</v>
       </c>
-      <c r="E115" s="43" t="s">
+      <c r="E115" s="44" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="116" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C116" s="40"/>
-      <c r="D116" s="42">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="46"/>
+      <c r="C116" s="50"/>
+      <c r="D116" s="52">
         <v>334220</v>
       </c>
-      <c r="E116" s="43" t="s">
+      <c r="E116" s="44" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="117" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D117" s="42">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="46"/>
+      <c r="D117" s="52">
         <v>334290</v>
       </c>
-      <c r="E117" s="43" t="s">
+      <c r="E117" s="44" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="118" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C118" s="40">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="46"/>
+      <c r="C118" s="50">
         <v>3344</v>
       </c>
-      <c r="D118" s="42">
+      <c r="D118" s="52">
         <v>334413</v>
       </c>
-      <c r="E118" s="43" t="s">
+      <c r="E118" s="44" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="119" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C119" s="40"/>
-      <c r="D119" s="42">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="46"/>
+      <c r="C119" s="50"/>
+      <c r="D119" s="52">
         <v>334418</v>
       </c>
-      <c r="E119" s="43" t="s">
+      <c r="E119" s="44" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="120" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D120" s="42" t="s">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="46"/>
+      <c r="D120" s="52" t="s">
         <v>481</v>
       </c>
-      <c r="E120" s="43" t="s">
+      <c r="E120" s="44" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="121" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C121" s="40">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="46"/>
+      <c r="C121" s="50">
         <v>3345</v>
       </c>
-      <c r="D121" s="42">
+      <c r="D121" s="52">
         <v>334510</v>
       </c>
-      <c r="E121" s="43" t="s">
+      <c r="E121" s="44" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="122" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C122" s="40"/>
-      <c r="D122" s="42">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="46"/>
+      <c r="C122" s="50"/>
+      <c r="D122" s="52">
         <v>334511</v>
       </c>
-      <c r="E122" s="43" t="s">
+      <c r="E122" s="44" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="123" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D123" s="42">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="46"/>
+      <c r="D123" s="52">
         <v>334512</v>
       </c>
-      <c r="E123" s="43" t="s">
+      <c r="E123" s="44" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="124" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D124" s="42">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="46"/>
+      <c r="D124" s="52">
         <v>334513</v>
       </c>
-      <c r="E124" s="43" t="s">
+      <c r="E124" s="44" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="125" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D125" s="42">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="46"/>
+      <c r="D125" s="52">
         <v>334514</v>
       </c>
-      <c r="E125" s="43" t="s">
+      <c r="E125" s="44" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="126" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D126" s="42">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="46"/>
+      <c r="D126" s="52">
         <v>334515</v>
       </c>
-      <c r="E126" s="43" t="s">
+      <c r="E126" s="44" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="127" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D127" s="42">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="46"/>
+      <c r="D127" s="52">
         <v>334516</v>
       </c>
-      <c r="E127" s="43" t="s">
+      <c r="E127" s="44" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="128" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D128" s="42">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" s="46"/>
+      <c r="D128" s="52">
         <v>334517</v>
       </c>
-      <c r="E128" s="43" t="s">
+      <c r="E128" s="44" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D129" s="42" t="s">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="46"/>
+      <c r="D129" s="52" t="s">
         <v>491</v>
       </c>
-      <c r="E129" s="43" t="s">
+      <c r="E129" s="44" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C130" s="40" t="s">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="46"/>
+      <c r="C130" s="50" t="s">
         <v>493</v>
       </c>
-      <c r="D130" s="42">
+      <c r="D130" s="52">
         <v>334300</v>
       </c>
-      <c r="E130" s="43" t="s">
+      <c r="E130" s="44" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C131" s="40"/>
-      <c r="D131" s="42">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="46"/>
+      <c r="C131" s="50"/>
+      <c r="D131" s="52">
         <v>334610</v>
       </c>
-      <c r="E131" s="43" t="s">
+      <c r="E131" s="44" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B132" s="40">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="46"/>
+      <c r="B132" s="50">
         <v>335</v>
       </c>
-      <c r="C132" s="40">
+      <c r="C132" s="50">
         <v>335</v>
       </c>
-      <c r="D132" s="42">
+      <c r="D132" s="52">
         <v>335110</v>
       </c>
-      <c r="E132" s="43" t="s">
+      <c r="E132" s="44" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C133" s="40"/>
-      <c r="D133" s="42">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="46"/>
+      <c r="C133" s="50"/>
+      <c r="D133" s="52">
         <v>335120</v>
       </c>
-      <c r="E133" s="43" t="s">
+      <c r="E133" s="44" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D134" s="42">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="46"/>
+      <c r="D134" s="52">
         <v>335210</v>
       </c>
-      <c r="E134" s="43" t="s">
+      <c r="E134" s="44" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D135" s="42">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="46"/>
+      <c r="D135" s="52">
         <v>335221</v>
       </c>
-      <c r="E135" s="43" t="s">
+      <c r="E135" s="44" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D136" s="42">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="46"/>
+      <c r="D136" s="52">
         <v>335222</v>
       </c>
-      <c r="E136" s="43" t="s">
+      <c r="E136" s="44" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D137" s="42">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="46"/>
+      <c r="D137" s="52">
         <v>335224</v>
       </c>
-      <c r="E137" s="43" t="s">
+      <c r="E137" s="44" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D138" s="42">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="46"/>
+      <c r="D138" s="52">
         <v>335228</v>
       </c>
-      <c r="E138" s="43" t="s">
+      <c r="E138" s="44" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D139" s="42">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="46"/>
+      <c r="D139" s="52">
         <v>335311</v>
       </c>
-      <c r="E139" s="43" t="s">
+      <c r="E139" s="44" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D140" s="42">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="46"/>
+      <c r="D140" s="52">
         <v>335312</v>
       </c>
-      <c r="E140" s="43" t="s">
+      <c r="E140" s="44" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D141" s="42">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="46"/>
+      <c r="D141" s="52">
         <v>335313</v>
       </c>
-      <c r="E141" s="43" t="s">
+      <c r="E141" s="44" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D142" s="42">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="46"/>
+      <c r="D142" s="52">
         <v>335314</v>
       </c>
-      <c r="E142" s="43" t="s">
+      <c r="E142" s="44" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D143" s="42">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" s="46"/>
+      <c r="D143" s="52">
         <v>335911</v>
       </c>
-      <c r="E143" s="43" t="s">
+      <c r="E143" s="44" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D144" s="42">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" s="46"/>
+      <c r="D144" s="52">
         <v>335912</v>
       </c>
-      <c r="E144" s="43" t="s">
+      <c r="E144" s="44" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D145" s="42">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="46"/>
+      <c r="D145" s="52">
         <v>335920</v>
       </c>
-      <c r="E145" s="43" t="s">
+      <c r="E145" s="44" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D146" s="42">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" s="46"/>
+      <c r="D146" s="52">
         <v>335930</v>
       </c>
-      <c r="E146" s="43" t="s">
+      <c r="E146" s="44" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D147" s="42">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" s="46"/>
+      <c r="D147" s="52">
         <v>335991</v>
       </c>
-      <c r="E147" s="43" t="s">
+      <c r="E147" s="44" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D148" s="42">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" s="46"/>
+      <c r="D148" s="52">
         <v>335999</v>
       </c>
-      <c r="E148" s="43" t="s">
+      <c r="E148" s="44" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B149" s="40" t="s">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" s="46"/>
+      <c r="B149" s="50" t="s">
         <v>513</v>
       </c>
-      <c r="C149" s="40">
+      <c r="C149" s="50">
         <v>336111</v>
       </c>
-      <c r="D149" s="42">
+      <c r="D149" s="52">
         <v>336111</v>
       </c>
-      <c r="E149" s="43" t="s">
+      <c r="E149" s="44" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C150" s="40">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" s="46"/>
+      <c r="C150" s="50">
         <v>336112</v>
       </c>
-      <c r="D150" s="42">
+      <c r="D150" s="52">
         <v>336112</v>
       </c>
-      <c r="E150" s="43" t="s">
+      <c r="E150" s="44" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C151" s="40">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" s="46"/>
+      <c r="C151" s="50">
         <v>33612</v>
       </c>
-      <c r="D151" s="42">
+      <c r="D151" s="52">
         <v>336120</v>
       </c>
-      <c r="E151" s="43" t="s">
+      <c r="E151" s="44" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C152" s="40" t="s">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="46"/>
+      <c r="C152" s="50" t="s">
         <v>517</v>
       </c>
-      <c r="D152" s="42">
+      <c r="D152" s="52">
         <v>336211</v>
       </c>
-      <c r="E152" s="43" t="s">
+      <c r="E152" s="44" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C153" s="40"/>
-      <c r="D153" s="42">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" s="46"/>
+      <c r="C153" s="50"/>
+      <c r="D153" s="52">
         <v>336212</v>
       </c>
-      <c r="E153" s="43" t="s">
+      <c r="E153" s="44" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D154" s="42">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" s="46"/>
+      <c r="D154" s="52">
         <v>336213</v>
       </c>
-      <c r="E154" s="43" t="s">
+      <c r="E154" s="44" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D155" s="42">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" s="46"/>
+      <c r="D155" s="52">
         <v>336214</v>
       </c>
-      <c r="E155" s="43" t="s">
+      <c r="E155" s="44" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D156" s="42">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" s="46"/>
+      <c r="D156" s="52">
         <v>336310</v>
       </c>
-      <c r="E156" s="43" t="s">
+      <c r="E156" s="44" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D157" s="42">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" s="46"/>
+      <c r="D157" s="52">
         <v>336320</v>
       </c>
-      <c r="E157" s="43" t="s">
+      <c r="E157" s="44" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D158" s="42" t="s">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="46"/>
+      <c r="D158" s="52" t="s">
         <v>524</v>
       </c>
-      <c r="E158" s="43" t="s">
+      <c r="E158" s="44" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D159" s="42">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="46"/>
+      <c r="D159" s="52">
         <v>336350</v>
       </c>
-      <c r="E159" s="43" t="s">
+      <c r="E159" s="44" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D160" s="42">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="46"/>
+      <c r="D160" s="52">
         <v>336360</v>
       </c>
-      <c r="E160" s="43" t="s">
+      <c r="E160" s="44" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D161" s="42">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="46"/>
+      <c r="D161" s="52">
         <v>336370</v>
       </c>
-      <c r="E161" s="43" t="s">
+      <c r="E161" s="44" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D162" s="42">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="46"/>
+      <c r="D162" s="52">
         <v>336390</v>
       </c>
-      <c r="E162" s="43" t="s">
+      <c r="E162" s="44" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B163" s="40" t="s">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" s="46"/>
+      <c r="B163" s="50" t="s">
         <v>530</v>
       </c>
-      <c r="C163" s="40">
+      <c r="C163" s="50">
         <v>3364</v>
       </c>
-      <c r="D163" s="42">
+      <c r="D163" s="52">
         <v>336411</v>
       </c>
-      <c r="E163" s="43" t="s">
+      <c r="E163" s="44" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C164" s="40"/>
-      <c r="D164" s="42">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" s="46"/>
+      <c r="C164" s="50"/>
+      <c r="D164" s="52">
         <v>336412</v>
       </c>
-      <c r="E164" s="43" t="s">
+      <c r="E164" s="44" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D165" s="42">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="46"/>
+      <c r="D165" s="52">
         <v>336413</v>
       </c>
-      <c r="E165" s="43" t="s">
+      <c r="E165" s="44" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D166" s="42">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" s="46"/>
+      <c r="D166" s="52">
         <v>336414</v>
       </c>
-      <c r="E166" s="43" t="s">
+      <c r="E166" s="44" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D167" s="42" t="s">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" s="46"/>
+      <c r="D167" s="52" t="s">
         <v>535</v>
       </c>
-      <c r="E167" s="43" t="s">
+      <c r="E167" s="44" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C168" s="40" t="s">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" s="46"/>
+      <c r="C168" s="50" t="s">
         <v>537</v>
       </c>
-      <c r="D168" s="42">
+      <c r="D168" s="52">
         <v>336500</v>
       </c>
-      <c r="E168" s="43" t="s">
+      <c r="E168" s="44" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C169" s="40"/>
-      <c r="D169" s="42">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" s="46"/>
+      <c r="C169" s="50"/>
+      <c r="D169" s="52">
         <v>336611</v>
       </c>
-      <c r="E169" s="43" t="s">
+      <c r="E169" s="44" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D170" s="42">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" s="46"/>
+      <c r="D170" s="52">
         <v>336612</v>
       </c>
-      <c r="E170" s="43" t="s">
+      <c r="E170" s="44" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D171" s="42">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" s="46"/>
+      <c r="D171" s="52">
         <v>336991</v>
       </c>
-      <c r="E171" s="43" t="s">
+      <c r="E171" s="44" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D172" s="42">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" s="46"/>
+      <c r="D172" s="52">
         <v>336992</v>
       </c>
-      <c r="E172" s="43" t="s">
+      <c r="E172" s="44" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D173" s="42">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" s="46"/>
+      <c r="D173" s="52">
         <v>336999</v>
       </c>
-      <c r="E173" s="43" t="s">
+      <c r="E173" s="44" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B174" s="40">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" s="46"/>
+      <c r="B174" s="50">
         <v>337</v>
       </c>
-      <c r="C174" s="40">
+      <c r="C174" s="50">
         <v>337</v>
       </c>
-      <c r="D174" s="42">
+      <c r="D174" s="52">
         <v>337110</v>
       </c>
-      <c r="E174" s="43" t="s">
+      <c r="E174" s="44" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C175" s="40"/>
-      <c r="D175" s="42">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" s="46"/>
+      <c r="C175" s="50"/>
+      <c r="D175" s="52">
         <v>337121</v>
       </c>
-      <c r="E175" s="43" t="s">
+      <c r="E175" s="44" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D176" s="42">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" s="46"/>
+      <c r="D176" s="52">
         <v>337122</v>
       </c>
-      <c r="E176" s="43" t="s">
+      <c r="E176" s="44" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D177" s="46" t="s">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" s="46"/>
+      <c r="D177" s="55" t="s">
         <v>547</v>
       </c>
-      <c r="E177" s="46" t="s">
+      <c r="E177" s="45" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D178" s="42">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" s="46"/>
+      <c r="D178" s="52">
         <v>337127</v>
       </c>
-      <c r="E178" s="43" t="s">
+      <c r="E178" s="44" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D179" s="42" t="s">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" s="46"/>
+      <c r="D179" s="52" t="s">
         <v>550</v>
       </c>
-      <c r="E179" s="43" t="s">
+      <c r="E179" s="44" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D180" s="42">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" s="46"/>
+      <c r="D180" s="52">
         <v>337215</v>
       </c>
-      <c r="E180" s="43" t="s">
+      <c r="E180" s="44" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D181" s="42">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" s="46"/>
+      <c r="D181" s="52">
         <v>337900</v>
       </c>
-      <c r="E181" s="43" t="s">
+      <c r="E181" s="44" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B182" s="40">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" s="46"/>
+      <c r="B182" s="50">
         <v>339</v>
       </c>
-      <c r="C182" s="40">
+      <c r="C182" s="50">
         <v>3391</v>
       </c>
-      <c r="D182" s="42">
+      <c r="D182" s="52">
         <v>339112</v>
       </c>
-      <c r="E182" s="43" t="s">
+      <c r="E182" s="44" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C183" s="40"/>
-      <c r="D183" s="42">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" s="46"/>
+      <c r="C183" s="50"/>
+      <c r="D183" s="52">
         <v>339113</v>
       </c>
-      <c r="E183" s="43" t="s">
+      <c r="E183" s="44" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D184" s="42">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" s="46"/>
+      <c r="D184" s="52">
         <v>339114</v>
       </c>
-      <c r="E184" s="43" t="s">
+      <c r="E184" s="44" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D185" s="42">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" s="46"/>
+      <c r="D185" s="52">
         <v>339115</v>
       </c>
-      <c r="E185" s="43" t="s">
+      <c r="E185" s="44" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D186" s="42">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" s="46"/>
+      <c r="D186" s="52">
         <v>339116</v>
       </c>
-      <c r="E186" s="43" t="s">
+      <c r="E186" s="44" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C187" s="40">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" s="46"/>
+      <c r="C187" s="50">
         <v>3399</v>
       </c>
-      <c r="D187" s="42">
+      <c r="D187" s="52">
         <v>339910</v>
       </c>
-      <c r="E187" s="43" t="s">
+      <c r="E187" s="44" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C188" s="40"/>
-      <c r="D188" s="42">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" s="46"/>
+      <c r="C188" s="50"/>
+      <c r="D188" s="52">
         <v>339920</v>
       </c>
-      <c r="E188" s="43" t="s">
+      <c r="E188" s="44" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D189" s="42">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" s="46"/>
+      <c r="D189" s="52">
         <v>339930</v>
       </c>
-      <c r="E189" s="43" t="s">
+      <c r="E189" s="44" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D190" s="42">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" s="46"/>
+      <c r="D190" s="52">
         <v>339940</v>
       </c>
-      <c r="E190" s="43" t="s">
+      <c r="E190" s="44" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B191" s="50"/>
-      <c r="D191" s="42">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" s="46"/>
+      <c r="B191" s="53"/>
+      <c r="D191" s="52">
         <v>339950</v>
       </c>
-      <c r="E191" s="43" t="s">
+      <c r="E191" s="44" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B192" s="50"/>
-      <c r="D192" s="42">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" s="46"/>
+      <c r="B192" s="53"/>
+      <c r="D192" s="52">
         <v>339990</v>
       </c>
-      <c r="E192" s="43" t="s">
+      <c r="E192" s="44" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A193" s="47" t="s">
+      <c r="A193" s="43" t="s">
         <v>565</v>
       </c>
-      <c r="B193" s="40" t="s">
+      <c r="B193" s="50" t="s">
         <v>566</v>
       </c>
-      <c r="C193" s="40">
+      <c r="C193" s="50">
         <v>311</v>
       </c>
-      <c r="D193" s="42">
+      <c r="D193" s="52">
         <v>311111</v>
       </c>
-      <c r="E193" s="43" t="s">
+      <c r="E193" s="44" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B194" s="40"/>
-      <c r="C194" s="40"/>
-      <c r="D194" s="42">
+      <c r="A194" s="46"/>
+      <c r="B194" s="50"/>
+      <c r="C194" s="50"/>
+      <c r="D194" s="52">
         <v>311119</v>
       </c>
-      <c r="E194" s="43" t="s">
+      <c r="E194" s="44" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D195" s="42">
+      <c r="A195" s="46"/>
+      <c r="D195" s="52">
         <v>311210</v>
       </c>
-      <c r="E195" s="43" t="s">
+      <c r="E195" s="44" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D196" s="42">
+      <c r="A196" s="46"/>
+      <c r="D196" s="52">
         <v>311221</v>
       </c>
-      <c r="E196" s="43" t="s">
+      <c r="E196" s="44" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D197" s="42">
+      <c r="A197" s="46"/>
+      <c r="D197" s="52">
         <v>311224</v>
       </c>
-      <c r="E197" s="43" t="s">
+      <c r="E197" s="44" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D198" s="42">
+      <c r="A198" s="46"/>
+      <c r="D198" s="52">
         <v>311225</v>
       </c>
-      <c r="E198" s="43" t="s">
+      <c r="E198" s="44" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C199" s="48"/>
-      <c r="D199" s="42">
+      <c r="A199" s="46"/>
+      <c r="D199" s="52">
         <v>311230</v>
       </c>
-      <c r="E199" s="43" t="s">
+      <c r="E199" s="44" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D200" s="42">
+      <c r="A200" s="46"/>
+      <c r="D200" s="52">
         <v>311300</v>
       </c>
-      <c r="E200" s="43" t="s">
+      <c r="E200" s="44" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D201" s="42">
+      <c r="A201" s="46"/>
+      <c r="D201" s="52">
         <v>311410</v>
       </c>
-      <c r="E201" s="43" t="s">
+      <c r="E201" s="44" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D202" s="42">
+      <c r="A202" s="46"/>
+      <c r="D202" s="52">
         <v>311420</v>
       </c>
-      <c r="E202" s="43" t="s">
+      <c r="E202" s="44" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D203" s="42" t="s">
+      <c r="A203" s="46"/>
+      <c r="D203" s="52" t="s">
         <v>577</v>
       </c>
-      <c r="E203" s="43" t="s">
+      <c r="E203" s="44" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D204" s="42">
+      <c r="A204" s="46"/>
+      <c r="D204" s="52">
         <v>311513</v>
       </c>
-      <c r="E204" s="43" t="s">
+      <c r="E204" s="44" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C205" s="48"/>
-      <c r="D205" s="42">
+      <c r="A205" s="46"/>
+      <c r="D205" s="52">
         <v>311514</v>
       </c>
-      <c r="E205" s="43" t="s">
+      <c r="E205" s="44" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D206" s="42">
+      <c r="A206" s="46"/>
+      <c r="D206" s="52">
         <v>311520</v>
       </c>
-      <c r="E206" s="43" t="s">
+      <c r="E206" s="44" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D207" s="42" t="s">
+      <c r="A207" s="46"/>
+      <c r="D207" s="52" t="s">
         <v>582</v>
       </c>
-      <c r="E207" s="43" t="s">
+      <c r="E207" s="44" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D208" s="42">
+      <c r="A208" s="46"/>
+      <c r="D208" s="52">
         <v>311615</v>
       </c>
-      <c r="E208" s="43" t="s">
+      <c r="E208" s="44" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D209" s="42">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" s="46"/>
+      <c r="D209" s="52">
         <v>311700</v>
       </c>
-      <c r="E209" s="43" t="s">
+      <c r="E209" s="44" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C210" s="48"/>
-      <c r="D210" s="42">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" s="46"/>
+      <c r="D210" s="52">
         <v>311810</v>
       </c>
-      <c r="E210" s="43" t="s">
+      <c r="E210" s="44" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D211" s="42" t="s">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" s="46"/>
+      <c r="D211" s="52" t="s">
         <v>587</v>
       </c>
-      <c r="E211" s="43" t="s">
+      <c r="E211" s="44" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D212" s="42">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" s="46"/>
+      <c r="D212" s="52">
         <v>311910</v>
       </c>
-      <c r="E212" s="43" t="s">
+      <c r="E212" s="44" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D213" s="42">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" s="46"/>
+      <c r="D213" s="52">
         <v>311920</v>
       </c>
-      <c r="E213" s="43" t="s">
+      <c r="E213" s="44" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D214" s="42">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" s="46"/>
+      <c r="D214" s="52">
         <v>311930</v>
       </c>
-      <c r="E214" s="43" t="s">
+      <c r="E214" s="44" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D215" s="42">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" s="46"/>
+      <c r="D215" s="52">
         <v>311940</v>
       </c>
-      <c r="E215" s="43" t="s">
+      <c r="E215" s="44" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D216" s="42">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" s="46"/>
+      <c r="D216" s="52">
         <v>311990</v>
       </c>
-      <c r="E216" s="43" t="s">
+      <c r="E216" s="44" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C217" s="40">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" s="46"/>
+      <c r="C217" s="50">
         <v>3121</v>
       </c>
-      <c r="D217" s="42">
+      <c r="D217" s="52">
         <v>312110</v>
       </c>
-      <c r="E217" s="43" t="s">
+      <c r="E217" s="44" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C218" s="40"/>
-      <c r="D218" s="42">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" s="46"/>
+      <c r="C218" s="50"/>
+      <c r="D218" s="52">
         <v>312120</v>
       </c>
-      <c r="E218" s="43" t="s">
+      <c r="E218" s="44" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D219" s="42">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" s="46"/>
+      <c r="D219" s="52">
         <v>312130</v>
       </c>
-      <c r="E219" s="43" t="s">
+      <c r="E219" s="44" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D220" s="42">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" s="46"/>
+      <c r="D220" s="52">
         <v>312140</v>
       </c>
-      <c r="E220" s="43" t="s">
+      <c r="E220" s="44" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C221" s="40">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221" s="46"/>
+      <c r="C221" s="50">
         <v>3122</v>
       </c>
-      <c r="D221" s="42">
+      <c r="D221" s="52">
         <v>312200</v>
       </c>
-      <c r="E221" s="43" t="s">
+      <c r="E221" s="44" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B222" s="40" t="s">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A222" s="46"/>
+      <c r="B222" s="50" t="s">
         <v>599</v>
       </c>
-      <c r="C222" s="40" t="s">
+      <c r="C222" s="50" t="s">
         <v>599</v>
       </c>
-      <c r="D222" s="42">
+      <c r="D222" s="52">
         <v>313100</v>
       </c>
-      <c r="E222" s="43" t="s">
+      <c r="E222" s="44" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B223" s="40"/>
-      <c r="C223" s="40"/>
-      <c r="D223" s="42">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A223" s="46"/>
+      <c r="B223" s="50"/>
+      <c r="C223" s="50"/>
+      <c r="D223" s="52">
         <v>313200</v>
       </c>
-      <c r="E223" s="43" t="s">
+      <c r="E223" s="44" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B224" s="40"/>
-      <c r="D224" s="42">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224" s="46"/>
+      <c r="B224" s="50"/>
+      <c r="D224" s="52">
         <v>313300</v>
       </c>
-      <c r="E224" s="43" t="s">
+      <c r="E224" s="44" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B225" s="40"/>
-      <c r="D225" s="42">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225" s="46"/>
+      <c r="B225" s="50"/>
+      <c r="D225" s="52">
         <v>314110</v>
       </c>
-      <c r="E225" s="43" t="s">
+      <c r="E225" s="44" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D226" s="42">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226" s="46"/>
+      <c r="D226" s="52">
         <v>314120</v>
       </c>
-      <c r="E226" s="43" t="s">
+      <c r="E226" s="44" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D227" s="42">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A227" s="46"/>
+      <c r="D227" s="52">
         <v>314900</v>
       </c>
-      <c r="E227" s="43" t="s">
+      <c r="E227" s="44" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B228" s="40" t="s">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A228" s="46"/>
+      <c r="B228" s="50" t="s">
         <v>606</v>
       </c>
-      <c r="C228" s="40" t="s">
+      <c r="C228" s="50" t="s">
         <v>606</v>
       </c>
-      <c r="D228" s="42">
+      <c r="D228" s="52">
         <v>315000</v>
       </c>
-      <c r="E228" s="43" t="s">
+      <c r="E228" s="44" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B229" s="40"/>
-      <c r="C229" s="40"/>
-      <c r="D229" s="42">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229" s="46"/>
+      <c r="B229" s="50"/>
+      <c r="C229" s="50"/>
+      <c r="D229" s="52">
         <v>316000</v>
       </c>
-      <c r="E229" s="43" t="s">
+      <c r="E229" s="44" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B230" s="40">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A230" s="46"/>
+      <c r="B230" s="50">
         <v>322</v>
       </c>
-      <c r="C230" s="40">
+      <c r="C230" s="50">
         <v>322</v>
       </c>
-      <c r="D230" s="42">
+      <c r="D230" s="52">
         <v>322110</v>
       </c>
-      <c r="E230" s="43" t="s">
+      <c r="E230" s="44" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B231" s="40"/>
-      <c r="C231" s="40"/>
-      <c r="D231" s="42">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A231" s="46"/>
+      <c r="B231" s="50"/>
+      <c r="C231" s="50"/>
+      <c r="D231" s="52">
         <v>322120</v>
       </c>
-      <c r="E231" s="43" t="s">
+      <c r="E231" s="44" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D232" s="42">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A232" s="46"/>
+      <c r="D232" s="52">
         <v>322130</v>
       </c>
-      <c r="E232" s="43" t="s">
+      <c r="E232" s="44" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D233" s="42">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A233" s="46"/>
+      <c r="D233" s="52">
         <v>322210</v>
       </c>
-      <c r="E233" s="43" t="s">
+      <c r="E233" s="44" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D234" s="42">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234" s="46"/>
+      <c r="D234" s="52">
         <v>322220</v>
       </c>
-      <c r="E234" s="43" t="s">
+      <c r="E234" s="44" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D235" s="42">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A235" s="46"/>
+      <c r="D235" s="52">
         <v>322230</v>
       </c>
-      <c r="E235" s="43" t="s">
+      <c r="E235" s="44" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D236" s="42">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A236" s="46"/>
+      <c r="D236" s="52">
         <v>322291</v>
       </c>
-      <c r="E236" s="43" t="s">
+      <c r="E236" s="44" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D237" s="42">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A237" s="46"/>
+      <c r="D237" s="52">
         <v>322299</v>
       </c>
-      <c r="E237" s="43" t="s">
+      <c r="E237" s="44" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B238" s="40">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A238" s="46"/>
+      <c r="B238" s="50">
         <v>323</v>
       </c>
-      <c r="C238" s="40">
+      <c r="C238" s="50">
         <v>323</v>
       </c>
-      <c r="D238" s="42">
+      <c r="D238" s="52">
         <v>323110</v>
       </c>
-      <c r="E238" s="43" t="s">
+      <c r="E238" s="44" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B239" s="40"/>
-      <c r="C239" s="40"/>
-      <c r="D239" s="42">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A239" s="46"/>
+      <c r="B239" s="50"/>
+      <c r="C239" s="50"/>
+      <c r="D239" s="52">
         <v>323120</v>
       </c>
-      <c r="E239" s="43" t="s">
+      <c r="E239" s="44" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B240" s="40">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A240" s="46"/>
+      <c r="B240" s="50">
         <v>324</v>
       </c>
-      <c r="C240" s="40">
+      <c r="C240" s="50">
         <v>324</v>
       </c>
-      <c r="D240" s="42">
+      <c r="D240" s="52">
         <v>324110</v>
       </c>
-      <c r="E240" s="43" t="s">
+      <c r="E240" s="44" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B241" s="40"/>
-      <c r="C241" s="40"/>
-      <c r="D241" s="42">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241" s="46"/>
+      <c r="B241" s="50"/>
+      <c r="C241" s="50"/>
+      <c r="D241" s="52">
         <v>324121</v>
       </c>
-      <c r="E241" s="43" t="s">
+      <c r="E241" s="44" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D242" s="42">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A242" s="46"/>
+      <c r="D242" s="52">
         <v>324122</v>
       </c>
-      <c r="E242" s="43" t="s">
+      <c r="E242" s="44" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D243" s="42">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" s="46"/>
+      <c r="D243" s="52">
         <v>324190</v>
       </c>
-      <c r="E243" s="43" t="s">
+      <c r="E243" s="44" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B244" s="40">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A244" s="46"/>
+      <c r="B244" s="50">
         <v>325</v>
       </c>
-      <c r="C244" s="40">
+      <c r="C244" s="50">
         <v>3251</v>
       </c>
-      <c r="D244" s="42">
+      <c r="D244" s="52">
         <v>325110</v>
       </c>
-      <c r="E244" s="43" t="s">
+      <c r="E244" s="44" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="245" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B245" s="40"/>
-      <c r="C245" s="40"/>
-      <c r="D245" s="42">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A245" s="46"/>
+      <c r="B245" s="50"/>
+      <c r="C245" s="50"/>
+      <c r="D245" s="52">
         <v>325120</v>
       </c>
-      <c r="E245" s="43" t="s">
+      <c r="E245" s="44" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D246" s="42">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246" s="46"/>
+      <c r="D246" s="52">
         <v>325130</v>
       </c>
-      <c r="E246" s="43" t="s">
+      <c r="E246" s="44" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D247" s="42">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247" s="46"/>
+      <c r="D247" s="52">
         <v>325180</v>
       </c>
-      <c r="E247" s="43" t="s">
+      <c r="E247" s="44" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D248" s="42">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248" s="46"/>
+      <c r="D248" s="52">
         <v>325190</v>
       </c>
-      <c r="E248" s="43" t="s">
+      <c r="E248" s="44" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="249" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C249" s="40">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" s="46"/>
+      <c r="C249" s="50">
         <v>3252</v>
       </c>
-      <c r="D249" s="42">
+      <c r="D249" s="52">
         <v>325211</v>
       </c>
-      <c r="E249" s="43" t="s">
+      <c r="E249" s="44" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="250" spans="2:5" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C250" s="40"/>
-      <c r="D250" s="42" t="s">
+    <row r="250" spans="1:5" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="46"/>
+      <c r="C250" s="50"/>
+      <c r="D250" s="52" t="s">
         <v>629</v>
       </c>
-      <c r="E250" s="43" t="s">
+      <c r="E250" s="44" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="251" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C251" s="40">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" s="46"/>
+      <c r="C251" s="50">
         <v>3254</v>
       </c>
-      <c r="D251" s="42">
+      <c r="D251" s="52">
         <v>325411</v>
       </c>
-      <c r="E251" s="43" t="s">
+      <c r="E251" s="44" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="252" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C252" s="40"/>
-      <c r="D252" s="42">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" s="46"/>
+      <c r="C252" s="50"/>
+      <c r="D252" s="52">
         <v>325412</v>
       </c>
-      <c r="E252" s="43" t="s">
+      <c r="E252" s="44" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="253" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D253" s="42">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" s="46"/>
+      <c r="D253" s="52">
         <v>325413</v>
       </c>
-      <c r="E253" s="43" t="s">
+      <c r="E253" s="44" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="254" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D254" s="42">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A254" s="46"/>
+      <c r="D254" s="52">
         <v>325414</v>
       </c>
-      <c r="E254" s="43" t="s">
+      <c r="E254" s="44" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="255" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C255" s="40" t="s">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A255" s="46"/>
+      <c r="C255" s="50" t="s">
         <v>635</v>
       </c>
-      <c r="D255" s="42">
+      <c r="D255" s="52">
         <v>325310</v>
       </c>
-      <c r="E255" s="43" t="s">
+      <c r="E255" s="44" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="256" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C256" s="40"/>
-      <c r="D256" s="42">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A256" s="46"/>
+      <c r="C256" s="50"/>
+      <c r="D256" s="52">
         <v>325320</v>
       </c>
-      <c r="E256" s="43" t="s">
+      <c r="E256" s="44" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="257" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D257" s="42">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A257" s="46"/>
+      <c r="D257" s="52">
         <v>325510</v>
       </c>
-      <c r="E257" s="43" t="s">
+      <c r="E257" s="44" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="258" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D258" s="42">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A258" s="46"/>
+      <c r="D258" s="52">
         <v>325520</v>
       </c>
-      <c r="E258" s="43" t="s">
+      <c r="E258" s="44" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="259" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D259" s="42">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A259" s="46"/>
+      <c r="D259" s="52">
         <v>325610</v>
       </c>
-      <c r="E259" s="43" t="s">
+      <c r="E259" s="44" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="260" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D260" s="42">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A260" s="46"/>
+      <c r="D260" s="52">
         <v>325620</v>
       </c>
-      <c r="E260" s="43" t="s">
+      <c r="E260" s="44" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="261" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D261" s="42">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A261" s="46"/>
+      <c r="D261" s="52">
         <v>325910</v>
       </c>
-      <c r="E261" s="43" t="s">
+      <c r="E261" s="44" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="262" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D262" s="42" t="s">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A262" s="46"/>
+      <c r="D262" s="52" t="s">
         <v>643</v>
       </c>
-      <c r="E262" s="43" t="s">
+      <c r="E262" s="44" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="263" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B263" s="40">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A263" s="46"/>
+      <c r="B263" s="50">
         <v>326</v>
       </c>
-      <c r="C263" s="40">
+      <c r="C263" s="50">
         <v>326</v>
       </c>
-      <c r="D263" s="42">
+      <c r="D263" s="52">
         <v>326110</v>
       </c>
-      <c r="E263" s="43" t="s">
+      <c r="E263" s="44" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="264" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B264" s="40"/>
-      <c r="C264" s="40"/>
-      <c r="D264" s="42">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A264" s="46"/>
+      <c r="B264" s="50"/>
+      <c r="C264" s="50"/>
+      <c r="D264" s="52">
         <v>326120</v>
       </c>
-      <c r="E264" s="43" t="s">
+      <c r="E264" s="44" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="265" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D265" s="42">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A265" s="46"/>
+      <c r="D265" s="52">
         <v>326130</v>
       </c>
-      <c r="E265" s="43" t="s">
+      <c r="E265" s="44" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="266" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D266" s="42">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A266" s="46"/>
+      <c r="D266" s="52">
         <v>326140</v>
       </c>
-      <c r="E266" s="43" t="s">
+      <c r="E266" s="44" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="267" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D267" s="42">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A267" s="46"/>
+      <c r="D267" s="52">
         <v>326150</v>
       </c>
-      <c r="E267" s="43" t="s">
+      <c r="E267" s="44" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="268" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D268" s="42">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A268" s="46"/>
+      <c r="D268" s="52">
         <v>326160</v>
       </c>
-      <c r="E268" s="43" t="s">
+      <c r="E268" s="44" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="269" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D269" s="42">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A269" s="46"/>
+      <c r="D269" s="52">
         <v>326190</v>
       </c>
-      <c r="E269" s="43" t="s">
+      <c r="E269" s="44" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="270" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D270" s="42">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A270" s="46"/>
+      <c r="D270" s="52">
         <v>326210</v>
       </c>
-      <c r="E270" s="43" t="s">
+      <c r="E270" s="44" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="271" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D271" s="42">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A271" s="46"/>
+      <c r="D271" s="52">
         <v>326220</v>
       </c>
-      <c r="E271" s="43" t="s">
+      <c r="E271" s="44" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="272" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D272" s="42">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A272" s="46"/>
+      <c r="D272" s="52">
         <v>326290</v>
       </c>
-      <c r="E272" s="43" t="s">
+      <c r="E272" s="44" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A273" s="47">
+      <c r="A273" s="43">
         <v>42</v>
       </c>
-      <c r="B273" s="40">
+      <c r="B273" s="50">
         <v>42</v>
       </c>
-      <c r="C273" s="40">
+      <c r="C273" s="50">
         <v>4231</v>
       </c>
-      <c r="D273" s="45">
+      <c r="D273" s="56">
         <v>423100</v>
       </c>
-      <c r="E273" s="46" t="s">
+      <c r="E273" s="45" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A274" s="47"/>
-      <c r="B274" s="44"/>
-      <c r="C274" s="40">
+      <c r="A274" s="43"/>
+      <c r="B274" s="50"/>
+      <c r="C274" s="50">
         <v>4234</v>
       </c>
-      <c r="D274" s="45">
+      <c r="D274" s="56">
         <v>423400</v>
       </c>
-      <c r="E274" s="46" t="s">
+      <c r="E274" s="45" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C275" s="40">
+      <c r="A275" s="46"/>
+      <c r="C275" s="50">
         <v>4236</v>
       </c>
-      <c r="D275" s="45">
+      <c r="D275" s="56">
         <v>423600</v>
       </c>
-      <c r="E275" s="46" t="s">
+      <c r="E275" s="45" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C276" s="40">
+      <c r="A276" s="46"/>
+      <c r="C276" s="50">
         <v>4238</v>
       </c>
-      <c r="D276" s="45">
+      <c r="D276" s="56">
         <v>423800</v>
       </c>
-      <c r="E276" s="46" t="s">
+      <c r="E276" s="45" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C277" s="40" t="s">
+      <c r="A277" s="46"/>
+      <c r="C277" s="50" t="s">
         <v>659</v>
       </c>
-      <c r="D277" s="46" t="s">
+      <c r="D277" s="55" t="s">
         <v>661</v>
       </c>
-      <c r="E277" s="46" t="s">
+      <c r="E277" s="45" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B278" s="40"/>
-      <c r="C278" s="40">
+      <c r="A278" s="46"/>
+      <c r="B278" s="50"/>
+      <c r="C278" s="50">
         <v>4242</v>
       </c>
-      <c r="D278" s="45">
+      <c r="D278" s="56">
         <v>424200</v>
       </c>
-      <c r="E278" s="46" t="s">
+      <c r="E278" s="45" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B279" s="40"/>
-      <c r="C279" s="40">
+      <c r="A279" s="46"/>
+      <c r="B279" s="50"/>
+      <c r="C279" s="50">
         <v>4244</v>
       </c>
-      <c r="D279" s="45">
+      <c r="D279" s="56">
         <v>424400</v>
       </c>
-      <c r="E279" s="46" t="s">
+      <c r="E279" s="45" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B280" s="40"/>
-      <c r="C280" s="40">
+      <c r="A280" s="46"/>
+      <c r="B280" s="50"/>
+      <c r="C280" s="50">
         <v>4247</v>
       </c>
-      <c r="D280" s="45">
+      <c r="D280" s="56">
         <v>424700</v>
       </c>
-      <c r="E280" s="46" t="s">
+      <c r="E280" s="45" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B281" s="40"/>
-      <c r="C281" s="40" t="s">
+      <c r="A281" s="46"/>
+      <c r="B281" s="50"/>
+      <c r="C281" s="50" t="s">
         <v>665</v>
       </c>
-      <c r="D281" s="46" t="s">
+      <c r="D281" s="55" t="s">
         <v>667</v>
       </c>
-      <c r="E281" s="46" t="s">
+      <c r="E281" s="45" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C282" s="40">
+      <c r="A282" s="46"/>
+      <c r="C282" s="50">
         <v>425</v>
       </c>
-      <c r="D282" s="45">
+      <c r="D282" s="56">
         <v>425000</v>
       </c>
-      <c r="E282" s="46" t="s">
+      <c r="E282" s="45" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B283" s="40"/>
-      <c r="C283" s="40" t="s">
+      <c r="A283" s="46"/>
+      <c r="B283" s="50"/>
+      <c r="C283" s="50" t="s">
         <v>669</v>
       </c>
-      <c r="D283" s="46" t="s">
+      <c r="D283" s="55" t="s">
         <v>671</v>
       </c>
-      <c r="E283" s="46" t="s">
+      <c r="E283" s="45" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A284" s="47" t="s">
+      <c r="A284" s="43" t="s">
         <v>672</v>
       </c>
-      <c r="B284" s="40">
+      <c r="B284" s="50">
         <v>441</v>
       </c>
-      <c r="C284" s="40">
+      <c r="C284" s="50">
         <v>441</v>
       </c>
-      <c r="D284" s="42">
+      <c r="D284" s="52">
         <v>441000</v>
       </c>
-      <c r="E284" s="43" t="s">
+      <c r="E284" s="44" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A285" s="47"/>
-      <c r="B285" s="40">
+      <c r="A285" s="43"/>
+      <c r="B285" s="50">
         <v>445</v>
       </c>
-      <c r="C285" s="40">
+      <c r="C285" s="50">
         <v>445</v>
       </c>
-      <c r="D285" s="42">
+      <c r="D285" s="52">
         <v>445000</v>
       </c>
-      <c r="E285" s="42" t="s">
+      <c r="E285" s="47" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A286" s="47"/>
-      <c r="B286" s="40">
+      <c r="A286" s="43"/>
+      <c r="B286" s="50">
         <v>452</v>
       </c>
-      <c r="C286" s="40">
+      <c r="C286" s="50">
         <v>452</v>
       </c>
-      <c r="D286" s="42">
+      <c r="D286" s="52">
         <v>452000</v>
       </c>
-      <c r="E286" s="42" t="s">
+      <c r="E286" s="47" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A287" s="47"/>
-      <c r="B287" s="40" t="s">
+      <c r="A287" s="43"/>
+      <c r="B287" s="50" t="s">
         <v>673</v>
       </c>
-      <c r="C287" s="40">
+      <c r="C287" s="50">
         <v>444</v>
       </c>
-      <c r="D287" s="42">
+      <c r="D287" s="52">
         <v>444000</v>
       </c>
-      <c r="E287" s="43" t="s">
+      <c r="E287" s="44" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B288" s="44"/>
-      <c r="C288" s="40">
+      <c r="A288" s="46"/>
+      <c r="B288" s="50"/>
+      <c r="C288" s="50">
         <v>446</v>
       </c>
-      <c r="D288" s="42">
+      <c r="D288" s="52">
         <v>446000</v>
       </c>
-      <c r="E288" s="43" t="s">
+      <c r="E288" s="44" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B289" s="44"/>
-      <c r="C289" s="40">
+      <c r="A289" s="46"/>
+      <c r="B289" s="50"/>
+      <c r="C289" s="50">
         <v>447</v>
       </c>
-      <c r="D289" s="42">
+      <c r="D289" s="52">
         <v>447000</v>
       </c>
-      <c r="E289" s="43" t="s">
+      <c r="E289" s="44" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B290" s="44"/>
-      <c r="C290" s="40">
+      <c r="A290" s="46"/>
+      <c r="B290" s="50"/>
+      <c r="C290" s="50">
         <v>448</v>
       </c>
-      <c r="D290" s="42">
+      <c r="D290" s="52">
         <v>448000</v>
       </c>
-      <c r="E290" s="43" t="s">
+      <c r="E290" s="44" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A291" s="47"/>
-      <c r="B291" s="44"/>
-      <c r="C291" s="40">
+      <c r="A291" s="43"/>
+      <c r="B291" s="50"/>
+      <c r="C291" s="50">
         <v>454</v>
       </c>
-      <c r="D291" s="42">
+      <c r="D291" s="52">
         <v>454000</v>
       </c>
-      <c r="E291" s="43" t="s">
+      <c r="E291" s="44" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A292" s="47"/>
-      <c r="B292" s="44"/>
-      <c r="C292" s="40" t="s">
+      <c r="A292" s="43"/>
+      <c r="B292" s="50"/>
+      <c r="C292" s="50" t="s">
         <v>679</v>
       </c>
-      <c r="D292" s="42" t="s">
+      <c r="D292" s="52" t="s">
         <v>681</v>
       </c>
-      <c r="E292" s="43" t="s">
+      <c r="E292" s="44" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A293" s="47" t="s">
+      <c r="A293" s="43" t="s">
         <v>682</v>
       </c>
-      <c r="B293" s="40">
+      <c r="B293" s="50">
         <v>481</v>
       </c>
-      <c r="C293" s="40">
+      <c r="C293" s="50">
         <v>481</v>
       </c>
-      <c r="D293" s="42">
+      <c r="D293" s="52">
         <v>481000</v>
       </c>
-      <c r="E293" s="43" t="s">
+      <c r="E293" s="44" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B294" s="40">
+      <c r="A294" s="46"/>
+      <c r="B294" s="50">
         <v>482</v>
       </c>
-      <c r="C294" s="40">
+      <c r="C294" s="50">
         <v>482</v>
       </c>
-      <c r="D294" s="42">
+      <c r="D294" s="52">
         <v>482000</v>
       </c>
-      <c r="E294" s="43" t="s">
+      <c r="E294" s="44" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B295" s="40">
+      <c r="A295" s="46"/>
+      <c r="B295" s="50">
         <v>483</v>
       </c>
-      <c r="C295" s="40">
+      <c r="C295" s="50">
         <v>483</v>
       </c>
-      <c r="D295" s="42">
+      <c r="D295" s="52">
         <v>483000</v>
       </c>
-      <c r="E295" s="43" t="s">
+      <c r="E295" s="44" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B296" s="40">
+      <c r="A296" s="46"/>
+      <c r="B296" s="50">
         <v>484</v>
       </c>
-      <c r="C296" s="40">
+      <c r="C296" s="50">
         <v>484</v>
       </c>
-      <c r="D296" s="42">
+      <c r="D296" s="52">
         <v>484000</v>
       </c>
-      <c r="E296" s="43" t="s">
+      <c r="E296" s="44" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B297" s="40">
+      <c r="A297" s="46"/>
+      <c r="B297" s="50">
         <v>485</v>
       </c>
-      <c r="C297" s="40">
+      <c r="C297" s="50">
         <v>485</v>
       </c>
-      <c r="D297" s="42">
+      <c r="D297" s="52">
         <v>485000</v>
       </c>
-      <c r="E297" s="43" t="s">
+      <c r="E297" s="44" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B298" s="40">
+      <c r="A298" s="46"/>
+      <c r="B298" s="50">
         <v>486</v>
       </c>
-      <c r="C298" s="40">
+      <c r="C298" s="50">
         <v>486</v>
       </c>
-      <c r="D298" s="42">
+      <c r="D298" s="52">
         <v>486000</v>
       </c>
-      <c r="E298" s="43" t="s">
+      <c r="E298" s="44" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B299" s="40" t="s">
+      <c r="A299" s="46"/>
+      <c r="B299" s="50" t="s">
         <v>683</v>
       </c>
-      <c r="C299" s="40" t="s">
+      <c r="C299" s="50" t="s">
         <v>684</v>
       </c>
-      <c r="D299" s="42" t="s">
+      <c r="D299" s="52" t="s">
         <v>686</v>
       </c>
-      <c r="E299" s="43" t="s">
+      <c r="E299" s="44" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C300" s="40">
+      <c r="A300" s="46"/>
+      <c r="C300" s="50">
         <v>492</v>
       </c>
-      <c r="D300" s="42">
+      <c r="D300" s="52">
         <v>492000</v>
       </c>
-      <c r="E300" s="43" t="s">
+      <c r="E300" s="44" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B301" s="40">
+      <c r="A301" s="46"/>
+      <c r="B301" s="50">
         <v>493</v>
       </c>
-      <c r="C301" s="40">
+      <c r="C301" s="50">
         <v>493</v>
       </c>
-      <c r="D301" s="42">
+      <c r="D301" s="52">
         <v>493000</v>
       </c>
-      <c r="E301" s="43" t="s">
+      <c r="E301" s="44" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A302" s="47">
+      <c r="A302" s="43">
         <v>51</v>
       </c>
-      <c r="B302" s="40">
+      <c r="B302" s="50">
         <v>511</v>
       </c>
-      <c r="C302" s="40">
+      <c r="C302" s="50">
         <v>5111</v>
       </c>
-      <c r="D302" s="42">
+      <c r="D302" s="52">
         <v>511110</v>
       </c>
-      <c r="E302" s="43" t="s">
+      <c r="E302" s="44" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A303" s="47"/>
-      <c r="B303" s="44"/>
-      <c r="C303" s="40"/>
-      <c r="D303" s="42">
+      <c r="A303" s="43"/>
+      <c r="B303" s="50"/>
+      <c r="C303" s="50"/>
+      <c r="D303" s="52">
         <v>511120</v>
       </c>
-      <c r="E303" s="43" t="s">
+      <c r="E303" s="44" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A304" s="47"/>
-      <c r="D304" s="42">
+      <c r="A304" s="43"/>
+      <c r="D304" s="52">
         <v>511130</v>
       </c>
-      <c r="E304" s="43" t="s">
+      <c r="E304" s="44" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A305" s="47"/>
-      <c r="D305" s="42" t="s">
+      <c r="A305" s="43"/>
+      <c r="D305" s="52" t="s">
         <v>691</v>
       </c>
-      <c r="E305" s="43" t="s">
+      <c r="E305" s="44" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C306" s="40">
+      <c r="A306" s="46"/>
+      <c r="C306" s="50">
         <v>5112</v>
       </c>
-      <c r="D306" s="42">
+      <c r="D306" s="52">
         <v>511200</v>
       </c>
-      <c r="E306" s="43" t="s">
+      <c r="E306" s="44" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B307" s="40">
+      <c r="A307" s="46"/>
+      <c r="B307" s="50">
         <v>512</v>
       </c>
-      <c r="C307" s="40">
+      <c r="C307" s="50">
         <v>512</v>
       </c>
-      <c r="D307" s="45">
+      <c r="D307" s="56">
         <v>512100</v>
       </c>
-      <c r="E307" s="43" t="s">
+      <c r="E307" s="44" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C308" s="40"/>
-      <c r="D308" s="45">
+      <c r="A308" s="46"/>
+      <c r="C308" s="50"/>
+      <c r="D308" s="56">
         <v>512200</v>
       </c>
-      <c r="E308" s="43" t="s">
+      <c r="E308" s="44" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B309" s="40">
+      <c r="A309" s="46"/>
+      <c r="B309" s="50">
         <v>513</v>
       </c>
-      <c r="C309" s="40">
+      <c r="C309" s="50">
         <v>515</v>
       </c>
-      <c r="D309" s="45">
+      <c r="D309" s="56">
         <v>515100</v>
       </c>
-      <c r="E309" s="43" t="s">
+      <c r="E309" s="44" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C310" s="40"/>
-      <c r="D310" s="45">
+      <c r="A310" s="46"/>
+      <c r="C310" s="50"/>
+      <c r="D310" s="56">
         <v>515200</v>
       </c>
-      <c r="E310" s="43" t="s">
+      <c r="E310" s="44" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C311" s="40">
+      <c r="A311" s="46"/>
+      <c r="C311" s="50">
         <v>5171</v>
       </c>
-      <c r="D311" s="45">
+      <c r="D311" s="56">
         <v>517110</v>
       </c>
-      <c r="E311" s="43" t="s">
+      <c r="E311" s="44" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C312" s="40">
+      <c r="A312" s="46"/>
+      <c r="C312" s="50">
         <v>5172</v>
       </c>
-      <c r="D312" s="45">
+      <c r="D312" s="56">
         <v>517210</v>
       </c>
-      <c r="E312" s="43" t="s">
+      <c r="E312" s="44" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C313" s="40" t="s">
+      <c r="A313" s="46"/>
+      <c r="C313" s="50" t="s">
         <v>700</v>
       </c>
-      <c r="D313" s="42" t="s">
+      <c r="D313" s="52" t="s">
         <v>701</v>
       </c>
-      <c r="E313" s="43" t="s">
+      <c r="E313" s="44" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B314" s="40">
+      <c r="A314" s="46"/>
+      <c r="B314" s="50">
         <v>514</v>
       </c>
-      <c r="C314" s="40">
+      <c r="C314" s="50">
         <v>518</v>
       </c>
-      <c r="D314" s="45">
+      <c r="D314" s="56">
         <v>518200</v>
       </c>
-      <c r="E314" s="43" t="s">
+      <c r="E314" s="44" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C315" s="40">
+      <c r="A315" s="46"/>
+      <c r="C315" s="50">
         <v>519</v>
       </c>
-      <c r="D315" s="45">
+      <c r="D315" s="56">
         <v>519130</v>
       </c>
-      <c r="E315" s="43" t="s">
+      <c r="E315" s="44" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C316" s="40"/>
-      <c r="D316" s="42" t="s">
+      <c r="A316" s="46"/>
+      <c r="C316" s="50"/>
+      <c r="D316" s="52" t="s">
         <v>705</v>
       </c>
-      <c r="E316" s="43" t="s">
+      <c r="E316" s="44" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A317" s="47">
+      <c r="A317" s="43">
         <v>52</v>
       </c>
-      <c r="B317" s="40" t="s">
+      <c r="B317" s="50" t="s">
         <v>707</v>
       </c>
-      <c r="C317" s="40" t="s">
+      <c r="C317" s="50" t="s">
         <v>707</v>
       </c>
-      <c r="D317" s="42" t="s">
+      <c r="D317" s="52" t="s">
         <v>708</v>
       </c>
-      <c r="E317" s="43" t="s">
+      <c r="E317" s="44" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A318" s="47"/>
-      <c r="B318" s="44"/>
-      <c r="C318" s="40"/>
-      <c r="D318" s="42" t="s">
+      <c r="A318" s="43"/>
+      <c r="B318" s="50"/>
+      <c r="C318" s="50"/>
+      <c r="D318" s="52" t="s">
         <v>710</v>
       </c>
-      <c r="E318" s="43" t="s">
+      <c r="E318" s="44" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B319" s="40">
+      <c r="A319" s="46"/>
+      <c r="B319" s="50">
         <v>523</v>
       </c>
-      <c r="C319" s="40">
+      <c r="C319" s="50">
         <v>523</v>
       </c>
-      <c r="D319" s="42" t="s">
+      <c r="D319" s="52" t="s">
         <v>712</v>
       </c>
-      <c r="E319" s="43" t="s">
+      <c r="E319" s="44" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C320" s="40"/>
-      <c r="D320" s="45">
+      <c r="A320" s="46"/>
+      <c r="C320" s="50"/>
+      <c r="D320" s="56">
         <v>523900</v>
       </c>
-      <c r="E320" s="43" t="s">
+      <c r="E320" s="44" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B321" s="40">
+      <c r="A321" s="46"/>
+      <c r="B321" s="50">
         <v>524</v>
       </c>
-      <c r="C321" s="40">
+      <c r="C321" s="50">
         <v>524113</v>
       </c>
-      <c r="D321" s="45">
+      <c r="D321" s="56">
         <v>524113</v>
       </c>
-      <c r="E321" s="46" t="s">
+      <c r="E321" s="45" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C322" s="40" t="s">
+      <c r="A322" s="46"/>
+      <c r="C322" s="50" t="s">
         <v>716</v>
       </c>
-      <c r="D322" s="46" t="s">
+      <c r="D322" s="55" t="s">
         <v>718</v>
       </c>
-      <c r="E322" s="46" t="s">
+      <c r="E322" s="45" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C323" s="40">
+      <c r="A323" s="46"/>
+      <c r="C323" s="50">
         <v>5242</v>
       </c>
-      <c r="D323" s="45">
+      <c r="D323" s="56">
         <v>524200</v>
       </c>
-      <c r="E323" s="43" t="s">
+      <c r="E323" s="44" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B324" s="40">
+      <c r="A324" s="46"/>
+      <c r="B324" s="50">
         <v>525</v>
       </c>
-      <c r="C324" s="40">
+      <c r="C324" s="50">
         <v>525</v>
       </c>
-      <c r="D324" s="45">
+      <c r="D324" s="56">
         <v>525000</v>
       </c>
-      <c r="E324" s="43" t="s">
+      <c r="E324" s="44" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A325" s="47">
+      <c r="A325" s="43">
         <v>53</v>
       </c>
-      <c r="B325" s="44" t="s">
+      <c r="B325" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="C325" s="40" t="s">
+      <c r="C325" s="50" t="s">
         <v>720</v>
       </c>
-      <c r="D325" s="46" t="s">
+      <c r="D325" s="55" t="s">
         <v>722</v>
       </c>
-      <c r="E325" s="46" t="s">
+      <c r="E325" s="45" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B326" s="44"/>
-      <c r="C326" s="40" t="s">
+      <c r="A326" s="46"/>
+      <c r="B326" s="50"/>
+      <c r="C326" s="50" t="s">
         <v>723</v>
       </c>
-      <c r="D326" s="46" t="s">
+      <c r="D326" s="55" t="s">
         <v>725</v>
       </c>
-      <c r="E326" s="46" t="s">
+      <c r="E326" s="45" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A327" s="47"/>
-      <c r="B327" s="40" t="s">
+      <c r="A327" s="43"/>
+      <c r="B327" s="50" t="s">
         <v>180</v>
       </c>
-      <c r="C327" s="40" t="s">
+      <c r="C327" s="50" t="s">
         <v>180</v>
       </c>
-      <c r="D327" s="45" t="s">
+      <c r="D327" s="56" t="s">
         <v>727</v>
       </c>
-      <c r="E327" s="43" t="s">
+      <c r="E327" s="44" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A328" s="47"/>
-      <c r="B328" s="40" t="s">
+      <c r="A328" s="43"/>
+      <c r="B328" s="50" t="s">
         <v>728</v>
       </c>
-      <c r="C328" s="40" t="s">
+      <c r="C328" s="50" t="s">
         <v>728</v>
       </c>
-      <c r="D328" s="45">
+      <c r="D328" s="56">
         <v>532100</v>
       </c>
-      <c r="E328" s="43" t="s">
+      <c r="E328" s="44" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A329" s="47"/>
-      <c r="B329" s="40"/>
-      <c r="C329" s="44"/>
-      <c r="D329" s="42" t="s">
+      <c r="A329" s="43"/>
+      <c r="B329" s="50"/>
+      <c r="C329" s="50"/>
+      <c r="D329" s="52" t="s">
         <v>730</v>
       </c>
-      <c r="E329" s="43" t="s">
+      <c r="E329" s="44" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A330" s="47"/>
-      <c r="B330" s="40"/>
-      <c r="C330" s="50"/>
-      <c r="D330" s="45">
+      <c r="A330" s="43"/>
+      <c r="B330" s="50"/>
+      <c r="C330" s="53"/>
+      <c r="D330" s="56">
         <v>532400</v>
       </c>
-      <c r="E330" s="43" t="s">
+      <c r="E330" s="44" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A331" s="47"/>
-      <c r="B331" s="40"/>
-      <c r="C331" s="44"/>
-      <c r="D331" s="45">
+      <c r="A331" s="43"/>
+      <c r="B331" s="50"/>
+      <c r="C331" s="50"/>
+      <c r="D331" s="56">
         <v>533000</v>
       </c>
-      <c r="E331" s="43" t="s">
+      <c r="E331" s="44" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A332" s="47">
+      <c r="A332" s="43">
         <v>54</v>
       </c>
-      <c r="B332" s="40">
+      <c r="B332" s="50">
         <v>5411</v>
       </c>
-      <c r="C332" s="40">
+      <c r="C332" s="50">
         <v>5411</v>
       </c>
-      <c r="D332" s="45">
+      <c r="D332" s="56">
         <v>541100</v>
       </c>
-      <c r="E332" s="43" t="s">
+      <c r="E332" s="44" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B333" s="44" t="s">
+      <c r="A333" s="46"/>
+      <c r="B333" s="50" t="s">
         <v>734</v>
       </c>
-      <c r="C333" s="40">
+      <c r="C333" s="50">
         <v>5412</v>
       </c>
-      <c r="D333" s="45">
+      <c r="D333" s="56">
         <v>541200</v>
       </c>
-      <c r="E333" s="43" t="s">
+      <c r="E333" s="44" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C334" s="40">
+      <c r="A334" s="46"/>
+      <c r="C334" s="50">
         <v>5413</v>
       </c>
-      <c r="D334" s="45">
+      <c r="D334" s="56">
         <v>541300</v>
       </c>
-      <c r="E334" s="43" t="s">
+      <c r="E334" s="44" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C335" s="40">
+      <c r="A335" s="46"/>
+      <c r="C335" s="50">
         <v>5416</v>
       </c>
-      <c r="D335" s="45">
+      <c r="D335" s="56">
         <v>541610</v>
       </c>
-      <c r="E335" s="43" t="s">
+      <c r="E335" s="44" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C336" s="40"/>
-      <c r="D336" s="42" t="s">
+      <c r="A336" s="46"/>
+      <c r="C336" s="50"/>
+      <c r="D336" s="52" t="s">
         <v>738</v>
       </c>
-      <c r="E336" s="43" t="s">
+      <c r="E336" s="44" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C337" s="40">
+      <c r="A337" s="46"/>
+      <c r="C337" s="50">
         <v>5417</v>
       </c>
-      <c r="D337" s="45">
+      <c r="D337" s="56">
         <v>541700</v>
       </c>
-      <c r="E337" s="43" t="s">
+      <c r="E337" s="44" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C338" s="40">
+      <c r="A338" s="46"/>
+      <c r="C338" s="50">
         <v>5418</v>
       </c>
-      <c r="D338" s="45">
+      <c r="D338" s="56">
         <v>541800</v>
       </c>
-      <c r="E338" s="43" t="s">
+      <c r="E338" s="44" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C339" s="40" t="s">
+      <c r="A339" s="46"/>
+      <c r="C339" s="50" t="s">
         <v>742</v>
       </c>
-      <c r="D339" s="45">
+      <c r="D339" s="56">
         <v>541400</v>
       </c>
-      <c r="E339" s="43" t="s">
+      <c r="E339" s="44" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C340" s="40"/>
-      <c r="D340" s="42" t="s">
+      <c r="A340" s="46"/>
+      <c r="C340" s="50"/>
+      <c r="D340" s="52" t="s">
         <v>281</v>
       </c>
-      <c r="E340" s="43" t="s">
+      <c r="E340" s="44" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D341" s="45">
+      <c r="A341" s="46"/>
+      <c r="D341" s="56">
         <v>541920</v>
       </c>
-      <c r="E341" s="43" t="s">
+      <c r="E341" s="44" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C342" s="40"/>
-      <c r="D342" s="45">
+      <c r="A342" s="46"/>
+      <c r="C342" s="50"/>
+      <c r="D342" s="56">
         <v>541940</v>
       </c>
-      <c r="E342" s="43" t="s">
+      <c r="E342" s="44" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B343" s="40">
+      <c r="A343" s="46"/>
+      <c r="B343" s="50">
         <v>5415</v>
       </c>
-      <c r="C343" s="40">
+      <c r="C343" s="50">
         <v>5415</v>
       </c>
-      <c r="D343" s="45">
+      <c r="D343" s="56">
         <v>541511</v>
       </c>
-      <c r="E343" s="43" t="s">
+      <c r="E343" s="44" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D344" s="45">
+      <c r="A344" s="46"/>
+      <c r="D344" s="56">
         <v>541512</v>
       </c>
-      <c r="E344" s="43" t="s">
+      <c r="E344" s="44" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C345" s="40"/>
-      <c r="D345" s="42" t="s">
+      <c r="A345" s="46"/>
+      <c r="C345" s="50"/>
+      <c r="D345" s="52" t="s">
         <v>749</v>
       </c>
-      <c r="E345" s="43" t="s">
+      <c r="E345" s="44" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A346" s="47">
+      <c r="A346" s="43">
         <v>55</v>
       </c>
-      <c r="B346" s="40">
+      <c r="B346" s="50">
         <v>55</v>
       </c>
-      <c r="C346" s="40">
+      <c r="C346" s="50">
         <v>55</v>
       </c>
-      <c r="D346" s="45">
+      <c r="D346" s="56">
         <v>550000</v>
       </c>
-      <c r="E346" s="43" t="s">
+      <c r="E346" s="44" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A347" s="47">
+      <c r="A347" s="43">
         <v>56</v>
       </c>
-      <c r="B347" s="40">
+      <c r="B347" s="50">
         <v>561</v>
       </c>
-      <c r="C347" s="40">
+      <c r="C347" s="50">
         <v>5613</v>
       </c>
-      <c r="D347" s="45">
+      <c r="D347" s="56">
         <v>561300</v>
       </c>
-      <c r="E347" s="43" t="s">
+      <c r="E347" s="44" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C348" s="40">
+      <c r="A348" s="46"/>
+      <c r="C348" s="50">
         <v>5617</v>
       </c>
-      <c r="D348" s="45">
+      <c r="D348" s="56">
         <v>561700</v>
       </c>
-      <c r="E348" s="43" t="s">
+      <c r="E348" s="44" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C349" s="40" t="s">
+      <c r="A349" s="46"/>
+      <c r="C349" s="50" t="s">
         <v>753</v>
       </c>
-      <c r="D349" s="45">
+      <c r="D349" s="56">
         <v>561100</v>
       </c>
-      <c r="E349" s="43" t="s">
+      <c r="E349" s="44" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C350" s="40"/>
-      <c r="D350" s="45">
+      <c r="A350" s="46"/>
+      <c r="C350" s="50"/>
+      <c r="D350" s="56">
         <v>561200</v>
       </c>
-      <c r="E350" s="43" t="s">
+      <c r="E350" s="44" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D351" s="45">
+      <c r="A351" s="46"/>
+      <c r="D351" s="56">
         <v>561400</v>
       </c>
-      <c r="E351" s="43" t="s">
+      <c r="E351" s="44" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B352" s="40"/>
-      <c r="D352" s="45">
+      <c r="A352" s="46"/>
+      <c r="B352" s="50"/>
+      <c r="D352" s="56">
         <v>561500</v>
       </c>
-      <c r="E352" s="43" t="s">
+      <c r="E352" s="44" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D353" s="45">
+      <c r="A353" s="46"/>
+      <c r="D353" s="56">
         <v>561600</v>
       </c>
-      <c r="E353" s="43" t="s">
+      <c r="E353" s="44" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D354" s="45">
+      <c r="A354" s="46"/>
+      <c r="D354" s="56">
         <v>561900</v>
       </c>
-      <c r="E354" s="43" t="s">
+      <c r="E354" s="44" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B355" s="40">
+      <c r="A355" s="46"/>
+      <c r="B355" s="50">
         <v>562</v>
       </c>
-      <c r="C355" s="40">
+      <c r="C355" s="50">
         <v>562</v>
       </c>
-      <c r="D355" s="45">
+      <c r="D355" s="56">
         <v>562000</v>
       </c>
-      <c r="E355" s="43" t="s">
+      <c r="E355" s="44" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A356" s="47">
+      <c r="A356" s="43">
         <v>61</v>
       </c>
-      <c r="B356" s="40">
+      <c r="B356" s="50">
         <v>61</v>
       </c>
-      <c r="C356" s="40">
+      <c r="C356" s="50">
         <v>61</v>
       </c>
-      <c r="D356" s="45">
+      <c r="D356" s="56">
         <v>611100</v>
       </c>
-      <c r="E356" s="43" t="s">
+      <c r="E356" s="44" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A357" s="47"/>
-      <c r="B357" s="44"/>
-      <c r="C357" s="44"/>
-      <c r="D357" s="42" t="s">
+      <c r="A357" s="43"/>
+      <c r="B357" s="50"/>
+      <c r="C357" s="50"/>
+      <c r="D357" s="52" t="s">
         <v>761</v>
       </c>
-      <c r="E357" s="43" t="s">
+      <c r="E357" s="44" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A358" s="47"/>
-      <c r="B358" s="40"/>
-      <c r="C358" s="44"/>
-      <c r="D358" s="42" t="s">
+      <c r="A358" s="43"/>
+      <c r="B358" s="50"/>
+      <c r="C358" s="50"/>
+      <c r="D358" s="52" t="s">
         <v>763</v>
       </c>
-      <c r="E358" s="43" t="s">
+      <c r="E358" s="44" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A359" s="47">
+      <c r="A359" s="43">
         <v>62</v>
       </c>
-      <c r="B359" s="40">
+      <c r="B359" s="50">
         <v>621</v>
       </c>
-      <c r="C359" s="40">
+      <c r="C359" s="50">
         <v>6211</v>
       </c>
-      <c r="D359" s="45">
+      <c r="D359" s="56">
         <v>621100</v>
       </c>
-      <c r="E359" s="43" t="s">
+      <c r="E359" s="44" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C360" s="40">
+      <c r="A360" s="46"/>
+      <c r="C360" s="50">
         <v>6212</v>
       </c>
-      <c r="D360" s="45">
+      <c r="D360" s="56">
         <v>621200</v>
       </c>
-      <c r="E360" s="43" t="s">
+      <c r="E360" s="44" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C361" s="40">
+      <c r="A361" s="46"/>
+      <c r="C361" s="50">
         <v>6213</v>
       </c>
-      <c r="D361" s="45">
+      <c r="D361" s="56">
         <v>621300</v>
       </c>
-      <c r="E361" s="43" t="s">
+      <c r="E361" s="44" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C362" s="40">
+      <c r="A362" s="46"/>
+      <c r="C362" s="50">
         <v>6214</v>
       </c>
-      <c r="D362" s="45">
+      <c r="D362" s="56">
         <v>621400</v>
       </c>
-      <c r="E362" s="43" t="s">
+      <c r="E362" s="44" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C363" s="40" t="s">
+      <c r="A363" s="46"/>
+      <c r="C363" s="50" t="s">
         <v>769</v>
       </c>
-      <c r="D363" s="45">
+      <c r="D363" s="56">
         <v>621500</v>
       </c>
-      <c r="E363" s="43" t="s">
+      <c r="E363" s="44" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D364" s="45">
+      <c r="A364" s="46"/>
+      <c r="D364" s="56">
         <v>621600</v>
       </c>
-      <c r="E364" s="43" t="s">
+      <c r="E364" s="44" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D365" s="45">
+      <c r="A365" s="46"/>
+      <c r="D365" s="56">
         <v>621900</v>
       </c>
-      <c r="E365" s="43" t="s">
+      <c r="E365" s="44" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B366" s="40">
+      <c r="A366" s="46"/>
+      <c r="B366" s="50">
         <v>622</v>
       </c>
-      <c r="C366" s="40">
+      <c r="C366" s="50">
         <v>622</v>
       </c>
-      <c r="D366" s="45">
+      <c r="D366" s="56">
         <v>622000</v>
       </c>
-      <c r="E366" s="43" t="s">
+      <c r="E366" s="44" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B367" s="40">
+      <c r="A367" s="46"/>
+      <c r="B367" s="50">
         <v>623</v>
       </c>
-      <c r="C367" s="40">
+      <c r="C367" s="50">
         <v>623</v>
       </c>
-      <c r="D367" s="42" t="s">
+      <c r="D367" s="52" t="s">
         <v>773</v>
       </c>
-      <c r="E367" s="43" t="s">
+      <c r="E367" s="44" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="368" spans="1:5" ht="10.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D368" s="42" t="s">
+      <c r="A368" s="46"/>
+      <c r="D368" s="52" t="s">
         <v>775</v>
       </c>
-      <c r="E368" s="43" t="s">
+      <c r="E368" s="44" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B369" s="40">
+      <c r="A369" s="46"/>
+      <c r="B369" s="50">
         <v>624</v>
       </c>
-      <c r="C369" s="40">
+      <c r="C369" s="50">
         <v>624</v>
       </c>
-      <c r="D369" s="45">
+      <c r="D369" s="56">
         <v>624100</v>
       </c>
-      <c r="E369" s="43" t="s">
+      <c r="E369" s="44" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D370" s="42" t="s">
+      <c r="A370" s="46"/>
+      <c r="D370" s="52" t="s">
         <v>778</v>
       </c>
-      <c r="E370" s="43" t="s">
+      <c r="E370" s="44" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C371" s="50"/>
-      <c r="D371" s="45">
+      <c r="A371" s="46"/>
+      <c r="C371" s="53"/>
+      <c r="D371" s="56">
         <v>624400</v>
       </c>
-      <c r="E371" s="43" t="s">
+      <c r="E371" s="44" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A372" s="47">
+      <c r="A372" s="43">
         <v>71</v>
       </c>
-      <c r="B372" s="40" t="s">
+      <c r="B372" s="50" t="s">
         <v>781</v>
       </c>
-      <c r="C372" s="40" t="s">
+      <c r="C372" s="50" t="s">
         <v>781</v>
       </c>
-      <c r="D372" s="45">
+      <c r="D372" s="56">
         <v>711100</v>
       </c>
-      <c r="E372" s="43" t="s">
+      <c r="E372" s="44" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A373" s="47"/>
-      <c r="B373" s="44"/>
-      <c r="C373" s="44"/>
-      <c r="D373" s="45">
+      <c r="A373" s="43"/>
+      <c r="B373" s="50"/>
+      <c r="C373" s="50"/>
+      <c r="D373" s="56">
         <v>711200</v>
       </c>
-      <c r="E373" s="43" t="s">
+      <c r="E373" s="44" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A374" s="47"/>
-      <c r="C374" s="50"/>
-      <c r="D374" s="42" t="s">
+      <c r="A374" s="43"/>
+      <c r="C374" s="53"/>
+      <c r="D374" s="52" t="s">
         <v>784</v>
       </c>
-      <c r="E374" s="43" t="s">
+      <c r="E374" s="44" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A375" s="47"/>
-      <c r="C375" s="40"/>
-      <c r="D375" s="45">
+      <c r="A375" s="43"/>
+      <c r="C375" s="50"/>
+      <c r="D375" s="56">
         <v>711500</v>
       </c>
-      <c r="E375" s="43" t="s">
+      <c r="E375" s="44" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D376" s="45">
+      <c r="A376" s="46"/>
+      <c r="D376" s="56">
         <v>712000</v>
       </c>
-      <c r="E376" s="43" t="s">
+      <c r="E376" s="44" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B377" s="40">
+      <c r="A377" s="46"/>
+      <c r="B377" s="50">
         <v>713</v>
       </c>
-      <c r="C377" s="40">
+      <c r="C377" s="50">
         <v>713</v>
       </c>
-      <c r="D377" s="45">
+      <c r="D377" s="56">
         <v>713100</v>
       </c>
-      <c r="E377" s="43" t="s">
+      <c r="E377" s="44" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C378" s="40"/>
-      <c r="D378" s="45">
+      <c r="A378" s="46"/>
+      <c r="C378" s="50"/>
+      <c r="D378" s="56">
         <v>713200</v>
       </c>
-      <c r="E378" s="43" t="s">
+      <c r="E378" s="44" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C379" s="40"/>
-      <c r="D379" s="45">
+      <c r="A379" s="46"/>
+      <c r="C379" s="50"/>
+      <c r="D379" s="56">
         <v>713900</v>
       </c>
-      <c r="E379" s="43" t="s">
+      <c r="E379" s="44" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A380" s="47">
+      <c r="A380" s="43">
         <v>72</v>
       </c>
-      <c r="B380" s="40">
+      <c r="B380" s="50">
         <v>721</v>
       </c>
-      <c r="C380" s="40">
+      <c r="C380" s="50">
         <v>721</v>
       </c>
-      <c r="D380" s="45">
+      <c r="D380" s="56">
         <v>721000</v>
       </c>
-      <c r="E380" s="43" t="s">
+      <c r="E380" s="44" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B381" s="40">
+      <c r="A381" s="46"/>
+      <c r="B381" s="50">
         <v>722</v>
       </c>
-      <c r="C381" s="40">
+      <c r="C381" s="50">
         <v>722</v>
       </c>
-      <c r="D381" s="45">
+      <c r="D381" s="56">
         <v>722110</v>
       </c>
-      <c r="E381" s="43" t="s">
+      <c r="E381" s="44" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C382" s="40"/>
-      <c r="D382" s="45">
+      <c r="A382" s="46"/>
+      <c r="C382" s="50"/>
+      <c r="D382" s="56">
         <v>722211</v>
       </c>
-      <c r="E382" s="43" t="s">
+      <c r="E382" s="44" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D383" s="42" t="s">
+      <c r="A383" s="46"/>
+      <c r="D383" s="52" t="s">
         <v>793</v>
       </c>
-      <c r="E383" s="43" t="s">
+      <c r="E383" s="44" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A384" s="47">
+      <c r="A384" s="43">
         <v>81</v>
       </c>
-      <c r="B384" s="40">
+      <c r="B384" s="50">
         <v>81</v>
       </c>
-      <c r="C384" s="40">
+      <c r="C384" s="50">
         <v>811</v>
       </c>
-      <c r="D384" s="45">
+      <c r="D384" s="56">
         <v>811100</v>
       </c>
-      <c r="E384" s="43" t="s">
+      <c r="E384" s="44" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A385" s="47"/>
-      <c r="B385" s="44"/>
-      <c r="C385" s="40"/>
-      <c r="D385" s="45">
+      <c r="A385" s="43"/>
+      <c r="B385" s="50"/>
+      <c r="C385" s="50"/>
+      <c r="D385" s="56">
         <v>811200</v>
       </c>
-      <c r="E385" s="43" t="s">
+      <c r="E385" s="44" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A386" s="47"/>
-      <c r="C386" s="40"/>
-      <c r="D386" s="45">
+      <c r="A386" s="43"/>
+      <c r="C386" s="50"/>
+      <c r="D386" s="56">
         <v>811300</v>
       </c>
-      <c r="E386" s="43" t="s">
+      <c r="E386" s="44" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A387" s="47"/>
-      <c r="D387" s="45">
+      <c r="A387" s="43"/>
+      <c r="D387" s="56">
         <v>811400</v>
       </c>
-      <c r="E387" s="43" t="s">
+      <c r="E387" s="44" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C388" s="40">
+      <c r="A388" s="46"/>
+      <c r="C388" s="50">
         <v>812</v>
       </c>
-      <c r="D388" s="45">
+      <c r="D388" s="56">
         <v>812100</v>
       </c>
-      <c r="E388" s="43" t="s">
+      <c r="E388" s="44" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C389" s="40"/>
-      <c r="D389" s="45">
+      <c r="A389" s="46"/>
+      <c r="C389" s="50"/>
+      <c r="D389" s="56">
         <v>812200</v>
       </c>
-      <c r="E389" s="43" t="s">
+      <c r="E389" s="44" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D390" s="45">
+      <c r="A390" s="46"/>
+      <c r="D390" s="56">
         <v>812300</v>
       </c>
-      <c r="E390" s="43" t="s">
+      <c r="E390" s="44" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D391" s="45">
+      <c r="A391" s="46"/>
+      <c r="D391" s="56">
         <v>812900</v>
       </c>
-      <c r="E391" s="43" t="s">
+      <c r="E391" s="44" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C392" s="40">
+      <c r="A392" s="46"/>
+      <c r="C392" s="50">
         <v>813</v>
       </c>
-      <c r="D392" s="45">
+      <c r="D392" s="56">
         <v>813100</v>
       </c>
-      <c r="E392" s="43" t="s">
+      <c r="E392" s="44" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C393" s="40"/>
-      <c r="D393" s="42" t="s">
+      <c r="A393" s="46"/>
+      <c r="C393" s="50"/>
+      <c r="D393" s="52" t="s">
         <v>804</v>
       </c>
-      <c r="E393" s="43" t="s">
+      <c r="E393" s="44" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D394" s="42" t="s">
+      <c r="A394" s="46"/>
+      <c r="D394" s="52" t="s">
         <v>806</v>
       </c>
-      <c r="E394" s="43" t="s">
+      <c r="E394" s="44" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C395" s="40">
+      <c r="A395" s="46"/>
+      <c r="C395" s="50">
         <v>814</v>
       </c>
-      <c r="D395" s="45">
+      <c r="D395" s="56">
         <v>814000</v>
       </c>
-      <c r="E395" s="43" t="s">
+      <c r="E395" s="44" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A396" s="47" t="s">
+      <c r="A396" s="43" t="s">
         <v>809</v>
       </c>
-      <c r="B396" s="40" t="s">
+      <c r="B396" s="50" t="s">
         <v>257</v>
       </c>
-      <c r="C396" s="40" t="s">
+      <c r="C396" s="50" t="s">
         <v>257</v>
       </c>
-      <c r="D396" s="42" t="s">
+      <c r="D396" s="52" t="s">
         <v>810</v>
       </c>
-      <c r="E396" s="43" t="s">
+      <c r="E396" s="44" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B397" s="40" t="s">
+      <c r="A397" s="46"/>
+      <c r="B397" s="50" t="s">
         <v>261</v>
       </c>
-      <c r="C397" s="40" t="s">
+      <c r="C397" s="50" t="s">
         <v>261</v>
       </c>
-      <c r="D397" s="42" t="s">
+      <c r="D397" s="52" t="s">
         <v>811</v>
       </c>
-      <c r="E397" s="43" t="s">
+      <c r="E397" s="44" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B398" s="40" t="s">
+      <c r="A398" s="46"/>
+      <c r="B398" s="50" t="s">
         <v>812</v>
       </c>
-      <c r="C398" s="40" t="s">
+      <c r="C398" s="50" t="s">
         <v>812</v>
       </c>
-      <c r="D398" s="45">
+      <c r="D398" s="56">
         <v>491000</v>
       </c>
-      <c r="E398" s="43" t="s">
+      <c r="E398" s="44" t="s">
         <v>813</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C399" s="40"/>
-      <c r="D399" s="42" t="s">
+      <c r="A399" s="46"/>
+      <c r="C399" s="50"/>
+      <c r="D399" s="52" t="s">
         <v>814</v>
       </c>
-      <c r="E399" s="43" t="s">
+      <c r="E399" s="44" t="s">
         <v>815</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C400" s="40"/>
-      <c r="D400" s="42" t="s">
+      <c r="A400" s="46"/>
+      <c r="C400" s="50"/>
+      <c r="D400" s="52" t="s">
         <v>816</v>
       </c>
-      <c r="E400" s="43" t="s">
+      <c r="E400" s="44" t="s">
         <v>817</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B401" s="44" t="s">
+      <c r="A401" s="46"/>
+      <c r="B401" s="50" t="s">
         <v>818</v>
       </c>
-      <c r="C401" s="40" t="s">
+      <c r="C401" s="50" t="s">
         <v>819</v>
       </c>
-      <c r="D401" s="46" t="s">
+      <c r="D401" s="55" t="s">
         <v>819</v>
       </c>
-      <c r="E401" s="46" t="s">
+      <c r="E401" s="45" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C402" s="40" t="s">
+      <c r="A402" s="46"/>
+      <c r="C402" s="50" t="s">
         <v>821</v>
       </c>
-      <c r="D402" s="46" t="s">
+      <c r="D402" s="55" t="s">
         <v>821</v>
       </c>
-      <c r="E402" s="46" t="s">
+      <c r="E402" s="45" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C403" s="40" t="s">
+      <c r="A403" s="46"/>
+      <c r="C403" s="50" t="s">
         <v>823</v>
       </c>
-      <c r="D403" s="46" t="s">
+      <c r="D403" s="55" t="s">
         <v>823</v>
       </c>
-      <c r="E403" s="46" t="s">
+      <c r="E403" s="45" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B404" s="40" t="s">
+      <c r="A404" s="46"/>
+      <c r="B404" s="50" t="s">
         <v>825</v>
       </c>
-      <c r="C404" s="40" t="s">
+      <c r="C404" s="50" t="s">
         <v>825</v>
       </c>
-      <c r="D404" s="42" t="s">
+      <c r="D404" s="52" t="s">
         <v>826</v>
       </c>
-      <c r="E404" s="43" t="s">
+      <c r="E404" s="44" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C405" s="40"/>
-      <c r="D405" s="42" t="s">
+      <c r="A405" s="46"/>
+      <c r="C405" s="50"/>
+      <c r="D405" s="52" t="s">
         <v>828</v>
       </c>
-      <c r="E405" s="43" t="s">
+      <c r="E405" s="44" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C406" s="50"/>
-      <c r="D406" s="42" t="s">
+      <c r="A406" s="46"/>
+      <c r="C406" s="53"/>
+      <c r="D406" s="52" t="s">
         <v>830</v>
       </c>
-      <c r="E406" s="43" t="s">
+      <c r="E406" s="44" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A407" s="47" t="s">
+      <c r="A407" s="43" t="s">
         <v>832</v>
       </c>
-      <c r="B407" s="40" t="s">
+      <c r="B407" s="50" t="s">
         <v>832</v>
       </c>
-      <c r="C407" s="40" t="s">
+      <c r="C407" s="50" t="s">
         <v>833</v>
       </c>
-      <c r="D407" s="42" t="s">
+      <c r="D407" s="52" t="s">
         <v>834</v>
       </c>
-      <c r="E407" s="43" t="s">
+      <c r="E407" s="44" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A408" s="47"/>
-      <c r="B408" s="50"/>
-      <c r="C408" s="40"/>
-      <c r="D408" s="42" t="s">
+      <c r="A408" s="43"/>
+      <c r="B408" s="53"/>
+      <c r="C408" s="50"/>
+      <c r="D408" s="52" t="s">
         <v>836</v>
       </c>
-      <c r="E408" s="43" t="s">
+      <c r="E408" s="44" t="s">
         <v>837</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A409" s="47" t="s">
+      <c r="A409" s="43" t="s">
         <v>838</v>
       </c>
-      <c r="B409" s="40" t="s">
+      <c r="B409" s="50" t="s">
         <v>838</v>
       </c>
-      <c r="C409" s="40" t="s">
+      <c r="C409" s="50" t="s">
         <v>839</v>
       </c>
-      <c r="D409" s="42" t="s">
+      <c r="D409" s="52" t="s">
         <v>841</v>
       </c>
-      <c r="E409" s="43" t="s">
+      <c r="E409" s="44" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A410" s="47"/>
-      <c r="C410" s="40" t="s">
+    <row r="410" spans="1:5" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A410" s="48"/>
+      <c r="B410" s="57"/>
+      <c r="C410" s="58" t="s">
         <v>842</v>
       </c>
-      <c r="D410" s="42" t="s">
+      <c r="D410" s="57" t="s">
         <v>844</v>
       </c>
-      <c r="E410" s="43" t="s">
+      <c r="E410" s="49" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A411" s="47"/>
-      <c r="D411" s="42" t="s">
+      <c r="A411" s="50"/>
+      <c r="D411" s="52" t="s">
         <v>329</v>
       </c>
-      <c r="E411" s="43" t="s">
+      <c r="E411" s="51" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C412" s="50"/>
-      <c r="D412" s="50"/>
-      <c r="E412" s="50"/>
+      <c r="C412" s="53"/>
+      <c r="D412" s="53"/>
+      <c r="E412" s="61"/>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D413" s="50"/>
-      <c r="E413" s="50"/>
+      <c r="D413" s="53"/>
+      <c r="E413" s="61"/>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C414" s="50"/>
-      <c r="D414" s="50"/>
-      <c r="E414" s="50"/>
+      <c r="C414" s="53"/>
+      <c r="D414" s="53"/>
+      <c r="E414" s="61"/>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C415" s="50"/>
-      <c r="D415" s="50"/>
-      <c r="E415" s="50"/>
+      <c r="C415" s="53"/>
+      <c r="D415" s="53"/>
+      <c r="E415" s="61"/>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B416" s="50"/>
-      <c r="C416" s="50"/>
-      <c r="D416" s="50"/>
-      <c r="E416" s="50"/>
-    </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C417" s="48"/>
-    </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C418" s="48"/>
+      <c r="B416" s="53"/>
+      <c r="C416" s="53"/>
+      <c r="D416" s="53"/>
+      <c r="E416" s="61"/>
     </row>
     <row r="419" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A419" s="51"/>
-      <c r="B419" s="51"/>
-      <c r="C419" s="51"/>
-      <c r="D419" s="51"/>
-      <c r="E419" s="51"/>
+      <c r="A419" s="59"/>
+      <c r="B419" s="59"/>
+      <c r="C419" s="59"/>
+      <c r="D419" s="59"/>
+      <c r="E419" s="62"/>
     </row>
     <row r="420" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A420" s="51"/>
-      <c r="B420" s="51"/>
-      <c r="C420" s="51"/>
-      <c r="D420" s="51"/>
-      <c r="E420" s="51"/>
+      <c r="A420" s="59"/>
+      <c r="B420" s="59"/>
+      <c r="C420" s="59"/>
+      <c r="D420" s="59"/>
+      <c r="E420" s="62"/>
     </row>
     <row r="421" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A421" s="51"/>
-      <c r="B421" s="51"/>
-      <c r="C421" s="51"/>
-      <c r="D421" s="51"/>
-      <c r="E421" s="51"/>
+      <c r="A421" s="59"/>
+      <c r="B421" s="59"/>
+      <c r="C421" s="59"/>
+      <c r="D421" s="59"/>
+      <c r="E421" s="62"/>
     </row>
     <row r="422" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A422" s="51"/>
-      <c r="B422" s="51"/>
-      <c r="C422" s="51"/>
-      <c r="D422" s="51"/>
-      <c r="E422" s="51"/>
+      <c r="A422" s="59"/>
+      <c r="B422" s="59"/>
+      <c r="C422" s="59"/>
+      <c r="D422" s="59"/>
+      <c r="E422" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
